--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_23_9_24.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_23_9_24.xlsx
@@ -494,7 +494,7 @@
         <v>2.987822969882686</v>
       </c>
       <c r="D4" t="n">
-        <v>3.368588447570801</v>
+        <v>3.36858868598938</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +564,7 @@
         <v>1.607071911269599</v>
       </c>
       <c r="D9" t="n">
-        <v>1.901467680931091</v>
+        <v>1.901467561721802</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>1.479875154414237</v>
       </c>
       <c r="D10" t="n">
-        <v>1.646089673042297</v>
+        <v>1.646089792251587</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>1.404551743365336</v>
       </c>
       <c r="D11" t="n">
-        <v>1.453260779380798</v>
+        <v>1.453260660171509</v>
       </c>
     </row>
     <row r="12">
@@ -620,7 +620,7 @@
         <v>1.385995091465572</v>
       </c>
       <c r="D13" t="n">
-        <v>1.280770182609558</v>
+        <v>1.280770063400269</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>1.430324041922637</v>
       </c>
       <c r="D14" t="n">
-        <v>1.295056104660034</v>
+        <v>1.295056581497192</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>1.502738612878482</v>
       </c>
       <c r="D15" t="n">
-        <v>1.365583896636963</v>
+        <v>1.365583777427673</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>1.598267225469177</v>
       </c>
       <c r="D16" t="n">
-        <v>1.482097864151001</v>
+        <v>1.482097625732422</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>1.712503714724715</v>
       </c>
       <c r="D17" t="n">
-        <v>1.633326411247253</v>
+        <v>1.633326530456543</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>1.841427758198229</v>
       </c>
       <c r="D18" t="n">
-        <v>1.807038068771362</v>
+        <v>1.807038187980652</v>
       </c>
     </row>
     <row r="19">
@@ -816,7 +816,7 @@
         <v>2.926025662149036</v>
       </c>
       <c r="D27" t="n">
-        <v>2.733016490936279</v>
+        <v>2.7330162525177</v>
       </c>
     </row>
     <row r="28">
@@ -858,7 +858,7 @@
         <v>2.880565646184186</v>
       </c>
       <c r="D30" t="n">
-        <v>2.581375122070312</v>
+        <v>2.581374883651733</v>
       </c>
     </row>
     <row r="31">
@@ -900,7 +900,7 @@
         <v>2.659968268488989</v>
       </c>
       <c r="D33" t="n">
-        <v>2.355861186981201</v>
+        <v>2.355860948562622</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>3.173507168895993</v>
       </c>
       <c r="D34" t="n">
-        <v>3.725469350814819</v>
+        <v>3.72546911239624</v>
       </c>
     </row>
     <row r="35">
@@ -998,7 +998,7 @@
         <v>1.435450190339559</v>
       </c>
       <c r="D40" t="n">
-        <v>2.18519401550293</v>
+        <v>2.185194253921509</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>1.252379902044768</v>
       </c>
       <c r="D41" t="n">
-        <v>1.884153008460999</v>
+        <v>1.884152889251709</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>1.125183145189406</v>
       </c>
       <c r="D42" t="n">
-        <v>1.627576947212219</v>
+        <v>1.627577185630798</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>1.049859734140504</v>
       </c>
       <c r="D43" t="n">
-        <v>1.433797597885132</v>
+        <v>1.433797717094421</v>
       </c>
     </row>
     <row r="44">
@@ -1068,7 +1068,7 @@
         <v>1.031303082240741</v>
       </c>
       <c r="D45" t="n">
-        <v>1.260049223899841</v>
+        <v>1.260049343109131</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>1.075632032697805</v>
       </c>
       <c r="D46" t="n">
-        <v>1.273918509483337</v>
+        <v>1.273918628692627</v>
       </c>
     </row>
     <row r="47">
@@ -1110,7 +1110,7 @@
         <v>1.243575216244345</v>
       </c>
       <c r="D48" t="n">
-        <v>1.460277199745178</v>
+        <v>1.460277557373047</v>
       </c>
     </row>
     <row r="49">
@@ -1138,7 +1138,7 @@
         <v>1.486735748973397</v>
       </c>
       <c r="D50" t="n">
-        <v>1.784420609474182</v>
+        <v>1.784420490264893</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>1.626475781118616</v>
       </c>
       <c r="D51" t="n">
-        <v>1.967221975326538</v>
+        <v>1.967222094535828</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>1.773056970297921</v>
       </c>
       <c r="D52" t="n">
-        <v>2.14689826965332</v>
+        <v>2.146898031234741</v>
       </c>
     </row>
     <row r="53">
@@ -1180,7 +1180,7 @@
         <v>1.922172557652208</v>
       </c>
       <c r="D53" t="n">
-        <v>2.312196969985962</v>
+        <v>2.312196731567383</v>
       </c>
     </row>
     <row r="54">
@@ -1222,7 +1222,7 @@
         <v>2.33392949237639</v>
       </c>
       <c r="D56" t="n">
-        <v>2.648161172866821</v>
+        <v>2.6481614112854</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>2.440070716153005</v>
       </c>
       <c r="D57" t="n">
-        <v>2.696495056152344</v>
+        <v>2.696494817733765</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>2.571333652924205</v>
       </c>
       <c r="D59" t="n">
-        <v>2.703037977218628</v>
+        <v>2.703038215637207</v>
       </c>
     </row>
     <row r="60">
@@ -1278,7 +1278,7 @@
         <v>2.588553143456563</v>
       </c>
       <c r="D60" t="n">
-        <v>2.668461561203003</v>
+        <v>2.668461322784424</v>
       </c>
     </row>
     <row r="61">
@@ -1404,7 +1404,7 @@
         <v>2.102593559955162</v>
       </c>
       <c r="D69" t="n">
-        <v>3.094112157821655</v>
+        <v>3.094112396240234</v>
       </c>
     </row>
     <row r="70">
@@ -1460,7 +1460,7 @@
         <v>1.06155995609878</v>
       </c>
       <c r="D73" t="n">
-        <v>1.866690754890442</v>
+        <v>1.866690635681152</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>0.9343631992434174</v>
       </c>
       <c r="D74" t="n">
-        <v>1.608866572380066</v>
+        <v>1.608866691589355</v>
       </c>
     </row>
     <row r="75">
@@ -1502,7 +1502,7 @@
         <v>0.8298468271493438</v>
       </c>
       <c r="D76" t="n">
-        <v>1.290854215621948</v>
+        <v>1.290854334831238</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>0.8404831362947531</v>
       </c>
       <c r="D77" t="n">
-        <v>1.238936066627502</v>
+        <v>1.238935708999634</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>0.8848120867518172</v>
       </c>
       <c r="D78" t="n">
-        <v>1.252325296401978</v>
+        <v>1.252325177192688</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>0.9572266577076625</v>
       </c>
       <c r="D79" t="n">
-        <v>1.322097182273865</v>
+        <v>1.322097420692444</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>1.052755270298357</v>
       </c>
       <c r="D80" t="n">
-        <v>1.437894463539124</v>
+        <v>1.437894344329834</v>
       </c>
     </row>
     <row r="81">
@@ -1586,7 +1586,7 @@
         <v>1.295915803027409</v>
       </c>
       <c r="D82" t="n">
-        <v>1.761159062385559</v>
+        <v>1.76115870475769</v>
       </c>
     </row>
     <row r="83">
@@ -1614,7 +1614,7 @@
         <v>1.582237024351933</v>
       </c>
       <c r="D84" t="n">
-        <v>2.12241530418396</v>
+        <v>2.122415065765381</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>1.73135261170622</v>
       </c>
       <c r="D85" t="n">
-        <v>2.286962270736694</v>
+        <v>2.286962032318115</v>
       </c>
     </row>
     <row r="86">
@@ -1684,7 +1684,7 @@
         <v>2.249250770207017</v>
       </c>
       <c r="D89" t="n">
-        <v>2.66777491569519</v>
+        <v>2.66777515411377</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>2.380513706978217</v>
       </c>
       <c r="D91" t="n">
-        <v>2.672473192214966</v>
+        <v>2.672473430633545</v>
       </c>
     </row>
     <row r="92">
@@ -1796,7 +1796,7 @@
         <v>2.11445631331817</v>
       </c>
       <c r="D97" t="n">
-        <v>2.282175064086914</v>
+        <v>2.282175302505493</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>2.919828224085738</v>
       </c>
       <c r="D98" t="n">
-        <v>3.697756052017212</v>
+        <v>3.697755813598633</v>
       </c>
     </row>
     <row r="99">
@@ -1852,7 +1852,7 @@
         <v>2.039734561090894</v>
       </c>
       <c r="D101" t="n">
-        <v>3.082259893417358</v>
+        <v>3.082260131835938</v>
       </c>
     </row>
     <row r="102">
@@ -1880,7 +1880,7 @@
         <v>1.421239830989663</v>
       </c>
       <c r="D103" t="n">
-        <v>2.477374076843262</v>
+        <v>2.477373838424683</v>
       </c>
     </row>
     <row r="104">
@@ -1894,7 +1894,7 @@
         <v>1.181771245529304</v>
       </c>
       <c r="D104" t="n">
-        <v>2.154205322265625</v>
+        <v>2.154205560684204</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>0.9987009572345125</v>
       </c>
       <c r="D105" t="n">
-        <v>1.850327849388123</v>
+        <v>1.850327491760254</v>
       </c>
     </row>
     <row r="106">
@@ -1936,7 +1936,7 @@
         <v>0.7961807893302488</v>
       </c>
       <c r="D107" t="n">
-        <v>1.395390272140503</v>
+        <v>1.395390033721924</v>
       </c>
     </row>
     <row r="108">
@@ -1964,7 +1964,7 @@
         <v>0.7776241374304858</v>
       </c>
       <c r="D109" t="n">
-        <v>1.218783140182495</v>
+        <v>1.218783378601074</v>
       </c>
     </row>
     <row r="110">
@@ -1978,7 +1978,7 @@
         <v>0.8219530878875503</v>
       </c>
       <c r="D110" t="n">
-        <v>1.231660842895508</v>
+        <v>1.231660604476929</v>
       </c>
     </row>
     <row r="111">
@@ -1992,7 +1992,7 @@
         <v>0.8943676588433951</v>
       </c>
       <c r="D111" t="n">
-        <v>1.300999879837036</v>
+        <v>1.300999999046326</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>0.98989627143409</v>
       </c>
       <c r="D112" t="n">
-        <v>1.416396260261536</v>
+        <v>1.416396141052246</v>
       </c>
     </row>
     <row r="113">
@@ -2034,7 +2034,7 @@
         <v>1.233056804163142</v>
       </c>
       <c r="D114" t="n">
-        <v>1.738770127296448</v>
+        <v>1.738769888877869</v>
       </c>
     </row>
     <row r="115">
@@ -2048,7 +2048,7 @@
         <v>1.37279683630836</v>
       </c>
       <c r="D115" t="n">
-        <v>1.920456647872925</v>
+        <v>1.920456528663635</v>
       </c>
     </row>
     <row r="116">
@@ -2076,7 +2076,7 @@
         <v>1.668493612841953</v>
       </c>
       <c r="D117" t="n">
-        <v>2.262650728225708</v>
+        <v>2.262650966644287</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2090,7 @@
         <v>1.815337889368931</v>
       </c>
       <c r="D118" t="n">
-        <v>2.403130769729614</v>
+        <v>2.403131246566772</v>
       </c>
     </row>
     <row r="119">
@@ -2118,7 +2118,7 @@
         <v>2.080250547566135</v>
       </c>
       <c r="D120" t="n">
-        <v>2.593596935272217</v>
+        <v>2.593596696853638</v>
       </c>
     </row>
     <row r="121">
@@ -2146,7 +2146,7 @@
         <v>2.267148279203769</v>
       </c>
       <c r="D122" t="n">
-        <v>2.655726432800293</v>
+        <v>2.655726671218872</v>
       </c>
     </row>
     <row r="123">
@@ -2188,7 +2188,7 @@
         <v>2.318567200448175</v>
       </c>
       <c r="D125" t="n">
-        <v>2.551542043685913</v>
+        <v>2.551541805267334</v>
       </c>
     </row>
     <row r="126">
@@ -2356,7 +2356,7 @@
         <v>1.03316320229149</v>
       </c>
       <c r="D137" t="n">
-        <v>1.836832523345947</v>
+        <v>1.836832404136658</v>
       </c>
     </row>
     <row r="138">
@@ -2370,7 +2370,7 @@
         <v>0.9059664454361276</v>
       </c>
       <c r="D138" t="n">
-        <v>1.576470136642456</v>
+        <v>1.576470017433167</v>
       </c>
     </row>
     <row r="139">
@@ -2384,7 +2384,7 @@
         <v>0.8306430343872264</v>
       </c>
       <c r="D139" t="n">
-        <v>1.37958288192749</v>
+        <v>1.379582762718201</v>
       </c>
     </row>
     <row r="140">
@@ -2398,7 +2398,7 @@
         <v>0.801450073342054</v>
       </c>
       <c r="D140" t="n">
-        <v>1.254709005355835</v>
+        <v>1.254708766937256</v>
       </c>
     </row>
     <row r="141">
@@ -2412,7 +2412,7 @@
         <v>0.8120863824874631</v>
       </c>
       <c r="D141" t="n">
-        <v>1.201503038406372</v>
+        <v>1.201503157615662</v>
       </c>
     </row>
     <row r="142">
@@ -2426,7 +2426,7 @@
         <v>0.8564153329445274</v>
       </c>
       <c r="D142" t="n">
-        <v>1.213872790336609</v>
+        <v>1.213873147964478</v>
       </c>
     </row>
     <row r="143">
@@ -2440,7 +2440,7 @@
         <v>0.9288299039003727</v>
       </c>
       <c r="D143" t="n">
-        <v>1.282792925834656</v>
+        <v>1.282792687416077</v>
       </c>
     </row>
     <row r="144">
@@ -2468,7 +2468,7 @@
         <v>1.138595005746605</v>
       </c>
       <c r="D145" t="n">
-        <v>1.547463774681091</v>
+        <v>1.547463536262512</v>
       </c>
     </row>
     <row r="146">
@@ -2482,7 +2482,7 @@
         <v>1.267519049220119</v>
       </c>
       <c r="D146" t="n">
-        <v>1.719364881515503</v>
+        <v>1.719365119934082</v>
       </c>
     </row>
     <row r="147">
@@ -2496,7 +2496,7 @@
         <v>1.407259081365338</v>
       </c>
       <c r="D147" t="n">
-        <v>1.900547742843628</v>
+        <v>1.900547862052917</v>
       </c>
     </row>
     <row r="148">
@@ -2580,7 +2580,7 @@
         <v>2.220854016399727</v>
       </c>
       <c r="D153" t="n">
-        <v>2.616176605224609</v>
+        <v>2.61617636680603</v>
       </c>
     </row>
     <row r="154">
@@ -2664,7 +2664,7 @@
         <v>2.237995850960032</v>
       </c>
       <c r="D159" t="n">
-        <v>2.377628564834595</v>
+        <v>2.377628326416016</v>
       </c>
     </row>
     <row r="160">
@@ -2678,7 +2678,7 @@
         <v>2.159201661468027</v>
       </c>
       <c r="D160" t="n">
-        <v>2.297027587890625</v>
+        <v>2.297027826309204</v>
       </c>
     </row>
     <row r="161">
@@ -2692,7 +2692,7 @@
         <v>2.08605955951088</v>
       </c>
       <c r="D161" t="n">
-        <v>2.217681884765625</v>
+        <v>2.217681646347046</v>
       </c>
     </row>
     <row r="162">
@@ -2734,7 +2734,7 @@
         <v>2.52027327898856</v>
       </c>
       <c r="D164" t="n">
-        <v>3.317484617233276</v>
+        <v>3.317484378814697</v>
       </c>
     </row>
     <row r="165">
@@ -2762,7 +2762,7 @@
         <v>1.852666171321974</v>
       </c>
       <c r="D166" t="n">
-        <v>2.779248952865601</v>
+        <v>2.77924919128418</v>
       </c>
     </row>
     <row r="167">
@@ -2776,7 +2776,7 @@
         <v>1.562061094130623</v>
       </c>
       <c r="D167" t="n">
-        <v>2.460976839065552</v>
+        <v>2.460977077484131</v>
       </c>
     </row>
     <row r="168">
@@ -2818,7 +2818,7 @@
         <v>1.012325463520111</v>
       </c>
       <c r="D170" t="n">
-        <v>1.567004084587097</v>
+        <v>1.567003965377808</v>
       </c>
     </row>
     <row r="171">
@@ -2832,7 +2832,7 @@
         <v>0.9370020524712093</v>
       </c>
       <c r="D171" t="n">
-        <v>1.369110584259033</v>
+        <v>1.369110465049744</v>
       </c>
     </row>
     <row r="172">
@@ -2846,7 +2846,7 @@
         <v>0.9078090914260366</v>
       </c>
       <c r="D172" t="n">
-        <v>1.243447065353394</v>
+        <v>1.243446826934814</v>
       </c>
     </row>
     <row r="173">
@@ -2860,7 +2860,7 @@
         <v>0.918445400571446</v>
       </c>
       <c r="D173" t="n">
-        <v>1.189638137817383</v>
+        <v>1.189638376235962</v>
       </c>
     </row>
     <row r="174">
@@ -2874,7 +2874,7 @@
         <v>0.9627743510285103</v>
       </c>
       <c r="D174" t="n">
-        <v>1.20154857635498</v>
+        <v>1.20154881477356</v>
       </c>
     </row>
     <row r="175">
@@ -2888,7 +2888,7 @@
         <v>1.035188921984356</v>
       </c>
       <c r="D175" t="n">
-        <v>1.270105600357056</v>
+        <v>1.270105838775635</v>
       </c>
     </row>
     <row r="176">
@@ -2902,7 +2902,7 @@
         <v>1.13071753457505</v>
       </c>
       <c r="D176" t="n">
-        <v>1.384808897972107</v>
+        <v>1.384809017181396</v>
       </c>
     </row>
     <row r="177">
@@ -2916,7 +2916,7 @@
         <v>1.244954023830588</v>
       </c>
       <c r="D177" t="n">
-        <v>1.534153461456299</v>
+        <v>1.534153342247009</v>
       </c>
     </row>
     <row r="178">
@@ -2958,7 +2958,7 @@
         <v>1.660199288628626</v>
       </c>
       <c r="D180" t="n">
-        <v>2.06379771232605</v>
+        <v>2.063797950744629</v>
       </c>
     </row>
     <row r="181">
@@ -2972,7 +2972,7 @@
         <v>1.809314875982913</v>
       </c>
       <c r="D181" t="n">
-        <v>2.226431608200073</v>
+        <v>2.226431846618652</v>
       </c>
     </row>
     <row r="182">
@@ -3042,7 +3042,7 @@
         <v>2.40796954234473</v>
       </c>
       <c r="D186" t="n">
-        <v>2.613128185272217</v>
+        <v>2.613128423690796</v>
       </c>
     </row>
     <row r="187">
@@ -3070,7 +3070,7 @@
         <v>2.475695461787268</v>
       </c>
       <c r="D188" t="n">
-        <v>2.561857223510742</v>
+        <v>2.561857461929321</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>2.459388463589136</v>
       </c>
       <c r="D189" t="n">
-        <v>2.505357265472412</v>
+        <v>2.505357503890991</v>
       </c>
     </row>
     <row r="190">
@@ -3140,7 +3140,7 @@
         <v>2.192418577594863</v>
       </c>
       <c r="D193" t="n">
-        <v>2.196292877197266</v>
+        <v>2.196292638778687</v>
       </c>
     </row>
     <row r="194">
@@ -3154,7 +3154,7 @@
         <v>3.217669401791301</v>
       </c>
       <c r="D194" t="n">
-        <v>3.682818174362183</v>
+        <v>3.682817935943604</v>
       </c>
     </row>
     <row r="195">
@@ -3168,7 +3168,7 @@
         <v>2.989115657363145</v>
       </c>
       <c r="D195" t="n">
-        <v>3.523566246032715</v>
+        <v>3.523566007614136</v>
       </c>
     </row>
     <row r="196">
@@ -3196,7 +3196,7 @@
         <v>2.337575738796458</v>
       </c>
       <c r="D197" t="n">
-        <v>3.072391033172607</v>
+        <v>3.072390794754028</v>
       </c>
     </row>
     <row r="198">
@@ -3210,7 +3210,7 @@
         <v>2.009686085886577</v>
       </c>
       <c r="D198" t="n">
-        <v>2.782431125640869</v>
+        <v>2.782431364059448</v>
       </c>
     </row>
     <row r="199">
@@ -3238,7 +3238,7 @@
         <v>1.479612423234867</v>
       </c>
       <c r="D200" t="n">
-        <v>2.13640022277832</v>
+        <v>2.136400461196899</v>
       </c>
     </row>
     <row r="201">
@@ -3252,7 +3252,7 @@
         <v>1.296542134940076</v>
       </c>
       <c r="D201" t="n">
-        <v>1.828567028045654</v>
+        <v>1.828566908836365</v>
       </c>
     </row>
     <row r="202">
@@ -3266,7 +3266,7 @@
         <v>1.169345378084714</v>
       </c>
       <c r="D202" t="n">
-        <v>1.565873622894287</v>
+        <v>1.565873503684998</v>
       </c>
     </row>
     <row r="203">
@@ -3280,7 +3280,7 @@
         <v>1.094021967035812</v>
       </c>
       <c r="D203" t="n">
-        <v>1.367061018943787</v>
+        <v>1.367060899734497</v>
       </c>
     </row>
     <row r="204">
@@ -3294,7 +3294,7 @@
         <v>1.06482900599064</v>
       </c>
       <c r="D204" t="n">
-        <v>1.240691304206848</v>
+        <v>1.240691542625427</v>
       </c>
     </row>
     <row r="205">
@@ -3336,7 +3336,7 @@
         <v>1.192208836548958</v>
       </c>
       <c r="D207" t="n">
-        <v>1.266205668449402</v>
+        <v>1.266206026077271</v>
       </c>
     </row>
     <row r="208">
@@ -3350,7 +3350,7 @@
         <v>1.287737449139653</v>
       </c>
       <c r="D208" t="n">
-        <v>1.380706310272217</v>
+        <v>1.380706191062927</v>
       </c>
     </row>
     <row r="209">
@@ -3364,7 +3364,7 @@
         <v>1.401973938395191</v>
       </c>
       <c r="D209" t="n">
-        <v>1.529860973358154</v>
+        <v>1.529861092567444</v>
       </c>
     </row>
     <row r="210">
@@ -3378,7 +3378,7 @@
         <v>1.530897981868705</v>
       </c>
       <c r="D210" t="n">
-        <v>1.70120108127594</v>
+        <v>1.70120096206665</v>
       </c>
     </row>
     <row r="211">
@@ -3392,7 +3392,7 @@
         <v>1.670638014013924</v>
       </c>
       <c r="D211" t="n">
-        <v>1.881709456443787</v>
+        <v>1.881709337234497</v>
       </c>
     </row>
     <row r="212">
@@ -3434,7 +3434,7 @@
         <v>2.113179067074495</v>
       </c>
       <c r="D214" t="n">
-        <v>2.359757900238037</v>
+        <v>2.359757661819458</v>
       </c>
     </row>
     <row r="215">
@@ -3448,7 +3448,7 @@
         <v>2.252382558458582</v>
       </c>
       <c r="D215" t="n">
-        <v>2.46933913230896</v>
+        <v>2.469339370727539</v>
       </c>
     </row>
     <row r="216">
@@ -3546,7 +3546,7 @@
         <v>2.570035869854662</v>
       </c>
       <c r="D222" t="n">
-        <v>2.426955699920654</v>
+        <v>2.426955461502075</v>
       </c>
     </row>
     <row r="223">
@@ -3560,7 +3560,7 @@
         <v>2.501374783608617</v>
       </c>
       <c r="D223" t="n">
-        <v>2.348603248596191</v>
+        <v>2.348603487014771</v>
       </c>
     </row>
     <row r="224">
@@ -3616,7 +3616,7 @@
         <v>3.178317063555211</v>
       </c>
       <c r="D227" t="n">
-        <v>3.536933660507202</v>
+        <v>3.536933898925781</v>
       </c>
     </row>
     <row r="228">
@@ -3658,7 +3658,7 @@
         <v>2.198887492078642</v>
       </c>
       <c r="D230" t="n">
-        <v>2.796845197677612</v>
+        <v>2.796845436096191</v>
       </c>
     </row>
     <row r="231">
@@ -3672,7 +3672,7 @@
         <v>1.908282414887292</v>
       </c>
       <c r="D231" t="n">
-        <v>2.477089643478394</v>
+        <v>2.477089881896973</v>
       </c>
     </row>
     <row r="232">
@@ -3728,7 +3728,7 @@
         <v>1.283223373227877</v>
       </c>
       <c r="D235" t="n">
-        <v>1.377014636993408</v>
+        <v>1.377015113830566</v>
       </c>
     </row>
     <row r="236">
@@ -3770,7 +3770,7 @@
         <v>1.308995671785179</v>
       </c>
       <c r="D238" t="n">
-        <v>1.206657290458679</v>
+        <v>1.2066570520401</v>
       </c>
     </row>
     <row r="239">
@@ -3784,7 +3784,7 @@
         <v>1.381410242741024</v>
       </c>
       <c r="D239" t="n">
-        <v>1.274831056594849</v>
+        <v>1.274831295013428</v>
       </c>
     </row>
     <row r="240">
@@ -3798,7 +3798,7 @@
         <v>1.476938855331719</v>
       </c>
       <c r="D240" t="n">
-        <v>1.389276623725891</v>
+        <v>1.389276742935181</v>
       </c>
     </row>
     <row r="241">
@@ -3826,7 +3826,7 @@
         <v>1.72009938806077</v>
       </c>
       <c r="D242" t="n">
-        <v>1.709686517715454</v>
+        <v>1.709686636924744</v>
       </c>
     </row>
     <row r="243">
@@ -3840,7 +3840,7 @@
         <v>1.859839420205989</v>
       </c>
       <c r="D243" t="n">
-        <v>1.890101790428162</v>
+        <v>1.890101552009583</v>
       </c>
     </row>
     <row r="244">
@@ -3854,7 +3854,7 @@
         <v>2.006420609385295</v>
       </c>
       <c r="D244" t="n">
-        <v>2.066942930221558</v>
+        <v>2.066943168640137</v>
       </c>
     </row>
     <row r="245">
@@ -3910,7 +3910,7 @@
         <v>2.567293131463764</v>
       </c>
       <c r="D248" t="n">
-        <v>2.5543212890625</v>
+        <v>2.554321050643921</v>
       </c>
     </row>
     <row r="249">
@@ -3924,7 +3924,7 @@
         <v>2.673434355240378</v>
       </c>
       <c r="D249" t="n">
-        <v>2.599176645278931</v>
+        <v>2.59917688369751</v>
       </c>
     </row>
     <row r="250">
@@ -3980,7 +3980,7 @@
         <v>2.805609784345804</v>
       </c>
       <c r="D253" t="n">
-        <v>2.504480123519897</v>
+        <v>2.504480361938477</v>
       </c>
     </row>
     <row r="254">
@@ -3994,7 +3994,7 @@
         <v>2.759237276046727</v>
       </c>
       <c r="D254" t="n">
-        <v>2.434209108352661</v>
+        <v>2.43420934677124</v>
       </c>
     </row>
     <row r="255">
@@ -4008,7 +4008,7 @@
         <v>2.690576189800682</v>
       </c>
       <c r="D255" t="n">
-        <v>2.355870962142944</v>
+        <v>2.355870723724365</v>
       </c>
     </row>
     <row r="256">
@@ -4148,7 +4148,7 @@
         <v>1.689950703177373</v>
       </c>
       <c r="D265" t="n">
-        <v>1.867350697517395</v>
+        <v>1.867350578308105</v>
       </c>
     </row>
     <row r="266">
@@ -4176,7 +4176,7 @@
         <v>1.48743053527311</v>
       </c>
       <c r="D267" t="n">
-        <v>1.402645230293274</v>
+        <v>1.402645349502563</v>
       </c>
     </row>
     <row r="268">
@@ -4190,7 +4190,7 @@
         <v>1.458237574227937</v>
       </c>
       <c r="D268" t="n">
-        <v>1.27526843547821</v>
+        <v>1.27526867389679</v>
       </c>
     </row>
     <row r="269">
@@ -4204,7 +4204,7 @@
         <v>1.468873883373346</v>
       </c>
       <c r="D269" t="n">
-        <v>1.220315337181091</v>
+        <v>1.220315098762512</v>
       </c>
     </row>
     <row r="270">
@@ -4218,7 +4218,7 @@
         <v>1.513202833830411</v>
       </c>
       <c r="D270" t="n">
-        <v>1.231544733047485</v>
+        <v>1.231544613838196</v>
       </c>
     </row>
     <row r="271">
@@ -4232,7 +4232,7 @@
         <v>1.585617404786256</v>
       </c>
       <c r="D271" t="n">
-        <v>1.299757599830627</v>
+        <v>1.299757480621338</v>
       </c>
     </row>
     <row r="272">
@@ -4246,7 +4246,7 @@
         <v>1.681146017376951</v>
       </c>
       <c r="D272" t="n">
-        <v>1.414315819740295</v>
+        <v>1.414315700531006</v>
       </c>
     </row>
     <row r="273">
@@ -4260,7 +4260,7 @@
         <v>1.795382506632489</v>
       </c>
       <c r="D273" t="n">
-        <v>1.56357741355896</v>
+        <v>1.56357753276825</v>
       </c>
     </row>
     <row r="274">
@@ -4274,7 +4274,7 @@
         <v>1.924306550106002</v>
       </c>
       <c r="D274" t="n">
-        <v>1.734996557235718</v>
+        <v>1.734997153282166</v>
       </c>
     </row>
     <row r="275">
@@ -4288,7 +4288,7 @@
         <v>2.064046582251221</v>
       </c>
       <c r="D275" t="n">
-        <v>1.915505051612854</v>
+        <v>1.915504813194275</v>
       </c>
     </row>
     <row r="276">
@@ -4372,7 +4372,7 @@
         <v>2.87764151728561</v>
       </c>
       <c r="D281" t="n">
-        <v>2.624825716018677</v>
+        <v>2.624825477600098</v>
       </c>
     </row>
     <row r="282">
@@ -4386,7 +4386,7 @@
         <v>2.95839802514663</v>
       </c>
       <c r="D282" t="n">
-        <v>2.638899564743042</v>
+        <v>2.638899326324463</v>
       </c>
     </row>
     <row r="283">
@@ -4414,7 +4414,7 @@
         <v>3.026123944589168</v>
       </c>
       <c r="D284" t="n">
-        <v>2.587464332580566</v>
+        <v>2.587464570999146</v>
       </c>
     </row>
     <row r="285">
@@ -4428,7 +4428,7 @@
         <v>3.009816946391036</v>
       </c>
       <c r="D285" t="n">
-        <v>2.530961275100708</v>
+        <v>2.530961036682129</v>
       </c>
     </row>
     <row r="286">
@@ -4484,7 +4484,7 @@
         <v>2.742847060396763</v>
       </c>
       <c r="D289" t="n">
-        <v>2.222160577774048</v>
+        <v>2.222160816192627</v>
       </c>
     </row>
     <row r="290">
@@ -4512,7 +4512,7 @@
         <v>3.584666542510784</v>
       </c>
       <c r="D291" t="n">
-        <v>3.609064340591431</v>
+        <v>3.609064102172852</v>
       </c>
     </row>
     <row r="292">
@@ -4540,7 +4540,7 @@
         <v>2.933126623944096</v>
       </c>
       <c r="D293" t="n">
-        <v>3.162582159042358</v>
+        <v>3.162582397460938</v>
       </c>
     </row>
     <row r="294">
@@ -4554,7 +4554,7 @@
         <v>2.605236971034215</v>
       </c>
       <c r="D294" t="n">
-        <v>2.872782707214355</v>
+        <v>2.872782945632935</v>
       </c>
     </row>
     <row r="295">
@@ -4568,7 +4568,7 @@
         <v>2.314631893842865</v>
       </c>
       <c r="D295" t="n">
-        <v>2.552370548248291</v>
+        <v>2.55237078666687</v>
       </c>
     </row>
     <row r="296">
@@ -4610,7 +4610,7 @@
         <v>1.764896263232352</v>
       </c>
       <c r="D298" t="n">
-        <v>1.647602081298828</v>
+        <v>1.647601962089539</v>
       </c>
     </row>
     <row r="299">
@@ -4624,7 +4624,7 @@
         <v>1.689572852183451</v>
       </c>
       <c r="D299" t="n">
-        <v>1.446907997131348</v>
+        <v>1.446908235549927</v>
       </c>
     </row>
     <row r="300">
@@ -4638,7 +4638,7 @@
         <v>1.660379891138278</v>
       </c>
       <c r="D300" t="n">
-        <v>1.319262266159058</v>
+        <v>1.319262623786926</v>
       </c>
     </row>
     <row r="301">
@@ -4652,7 +4652,7 @@
         <v>1.671016200283687</v>
       </c>
       <c r="D301" t="n">
-        <v>1.264226078987122</v>
+        <v>1.264225959777832</v>
       </c>
     </row>
     <row r="302">
@@ -4666,7 +4666,7 @@
         <v>1.715345150740752</v>
       </c>
       <c r="D302" t="n">
-        <v>1.275531530380249</v>
+        <v>1.275531768798828</v>
       </c>
     </row>
     <row r="303">
@@ -4680,7 +4680,7 @@
         <v>1.787759721696597</v>
       </c>
       <c r="D303" t="n">
-        <v>1.343941688537598</v>
+        <v>1.343941807746887</v>
       </c>
     </row>
     <row r="304">
@@ -4694,7 +4694,7 @@
         <v>1.883288334287292</v>
       </c>
       <c r="D304" t="n">
-        <v>1.458773970603943</v>
+        <v>1.458774447441101</v>
       </c>
     </row>
     <row r="305">
@@ -4722,7 +4722,7 @@
         <v>2.126448867016344</v>
       </c>
       <c r="D306" t="n">
-        <v>1.780063033103943</v>
+        <v>1.780063152313232</v>
       </c>
     </row>
     <row r="307">
@@ -4764,7 +4764,7 @@
         <v>2.561885675695154</v>
       </c>
       <c r="D309" t="n">
-        <v>2.300248861312866</v>
+        <v>2.300248622894287</v>
       </c>
     </row>
     <row r="310">
@@ -4806,7 +4806,7 @@
         <v>2.973642610419337</v>
       </c>
       <c r="D312" t="n">
-        <v>2.626279830932617</v>
+        <v>2.626280069351196</v>
       </c>
     </row>
     <row r="313">
@@ -4848,7 +4848,7 @@
         <v>3.211046770967151</v>
       </c>
       <c r="D315" t="n">
-        <v>2.672552347183228</v>
+        <v>2.672552585601807</v>
       </c>
     </row>
     <row r="316">
@@ -4918,7 +4918,7 @@
         <v>3.018131479264251</v>
       </c>
       <c r="D320" t="n">
-        <v>2.351621627807617</v>
+        <v>2.351621866226196</v>
       </c>
     </row>
     <row r="321">
@@ -4946,7 +4946,7 @@
         <v>3.995607219205135</v>
       </c>
       <c r="D322" t="n">
-        <v>3.825783967971802</v>
+        <v>3.825783729553223</v>
       </c>
     </row>
     <row r="323">
@@ -4960,7 +4960,7 @@
         <v>3.767053474776978</v>
       </c>
       <c r="D323" t="n">
-        <v>3.671719312667847</v>
+        <v>3.671719551086426</v>
       </c>
     </row>
     <row r="324">
@@ -5030,7 +5030,7 @@
         <v>2.2575502406487</v>
       </c>
       <c r="D328" t="n">
-        <v>2.288223505020142</v>
+        <v>2.288223743438721</v>
       </c>
     </row>
     <row r="329">
@@ -5058,7 +5058,7 @@
         <v>1.947283195498546</v>
       </c>
       <c r="D330" t="n">
-        <v>1.711724758148193</v>
+        <v>1.711724638938904</v>
       </c>
     </row>
     <row r="331">
@@ -5086,7 +5086,7 @@
         <v>1.842766823404473</v>
       </c>
       <c r="D332" t="n">
-        <v>1.382925271987915</v>
+        <v>1.382925391197205</v>
       </c>
     </row>
     <row r="333">
@@ -5100,7 +5100,7 @@
         <v>1.853403132549882</v>
       </c>
       <c r="D333" t="n">
-        <v>1.32792866230011</v>
+        <v>1.327928900718689</v>
       </c>
     </row>
     <row r="334">
@@ -5128,7 +5128,7 @@
         <v>1.970146653962791</v>
       </c>
       <c r="D335" t="n">
-        <v>1.408157706260681</v>
+        <v>1.40815794467926</v>
       </c>
     </row>
     <row r="336">
@@ -5142,7 +5142,7 @@
         <v>2.065675266553486</v>
       </c>
       <c r="D336" t="n">
-        <v>1.523386836051941</v>
+        <v>1.52338695526123</v>
       </c>
     </row>
     <row r="337">
@@ -5310,7 +5310,7 @@
         <v>3.410653193765704</v>
       </c>
       <c r="D348" t="n">
-        <v>2.705033302307129</v>
+        <v>2.705033540725708</v>
       </c>
     </row>
     <row r="349">
@@ -5380,7 +5380,7 @@
         <v>3.127376309573298</v>
       </c>
       <c r="D353" t="n">
-        <v>2.345170497894287</v>
+        <v>2.345170736312866</v>
       </c>
     </row>
     <row r="354">
@@ -5394,7 +5394,7 @@
         <v>4.139868088781944</v>
       </c>
       <c r="D354" t="n">
-        <v>3.902380466461182</v>
+        <v>3.902380228042603</v>
       </c>
     </row>
     <row r="355">
@@ -5408,7 +5408,7 @@
         <v>3.911314344353789</v>
       </c>
       <c r="D355" t="n">
-        <v>3.74993634223938</v>
+        <v>3.749936580657959</v>
       </c>
     </row>
     <row r="356">
@@ -5436,7 +5436,7 @@
         <v>3.259774425787101</v>
       </c>
       <c r="D357" t="n">
-        <v>3.308310031890869</v>
+        <v>3.308310270309448</v>
       </c>
     </row>
     <row r="358">
@@ -5506,7 +5506,7 @@
         <v>2.091544065075357</v>
       </c>
       <c r="D362" t="n">
-        <v>1.792367577552795</v>
+        <v>1.792367696762085</v>
       </c>
     </row>
     <row r="363">
@@ -5520,7 +5520,7 @@
         <v>2.016220654026455</v>
       </c>
       <c r="D363" t="n">
-        <v>1.59111487865448</v>
+        <v>1.59111475944519</v>
       </c>
     </row>
     <row r="364">
@@ -5534,7 +5534,7 @@
         <v>1.987027692981283</v>
       </c>
       <c r="D364" t="n">
-        <v>1.463253378868103</v>
+        <v>1.463253259658813</v>
       </c>
     </row>
     <row r="365">
@@ -5548,7 +5548,7 @@
         <v>1.997664002126692</v>
       </c>
       <c r="D365" t="n">
-        <v>1.408350467681885</v>
+        <v>1.408350706100464</v>
       </c>
     </row>
     <row r="366">
@@ -5562,7 +5562,7 @@
         <v>2.041992952583756</v>
       </c>
       <c r="D366" t="n">
-        <v>1.420097589492798</v>
+        <v>1.420097708702087</v>
       </c>
     </row>
     <row r="367">
@@ -5576,7 +5576,7 @@
         <v>2.114407523539601</v>
       </c>
       <c r="D367" t="n">
-        <v>1.489190816879272</v>
+        <v>1.489190697669983</v>
       </c>
     </row>
     <row r="368">
@@ -5604,7 +5604,7 @@
         <v>2.324172625385834</v>
       </c>
       <c r="D369" t="n">
-        <v>1.755341410636902</v>
+        <v>1.755341053009033</v>
       </c>
     </row>
     <row r="370">
@@ -5646,7 +5646,7 @@
         <v>2.739417890183872</v>
       </c>
       <c r="D372" t="n">
-        <v>2.287458896636963</v>
+        <v>2.287459135055542</v>
       </c>
     </row>
     <row r="373">
@@ -5660,7 +5660,7 @@
         <v>2.888533477538158</v>
       </c>
       <c r="D373" t="n">
-        <v>2.450455904006958</v>
+        <v>2.450455665588379</v>
       </c>
     </row>
     <row r="374">
@@ -5800,7 +5800,7 @@
         <v>3.42357347059926</v>
       </c>
       <c r="D383" t="n">
-        <v>2.592616558074951</v>
+        <v>2.59261679649353</v>
       </c>
     </row>
     <row r="384">
@@ -5842,7 +5842,7 @@
         <v>4.227717006255242</v>
       </c>
       <c r="D386" t="n">
-        <v>3.986433506011963</v>
+        <v>3.986433744430542</v>
       </c>
     </row>
     <row r="387">
@@ -5856,7 +5856,7 @@
         <v>3.999163261827086</v>
       </c>
       <c r="D387" t="n">
-        <v>3.835639953613281</v>
+        <v>3.835639715194702</v>
       </c>
     </row>
     <row r="388">
@@ -5884,7 +5884,7 @@
         <v>3.347623343260398</v>
       </c>
       <c r="D389" t="n">
-        <v>3.396682739257812</v>
+        <v>3.396682500839233</v>
       </c>
     </row>
     <row r="390">
@@ -5954,7 +5954,7 @@
         <v>2.179392982548654</v>
       </c>
       <c r="D394" t="n">
-        <v>1.880885004997253</v>
+        <v>1.880885124206543</v>
       </c>
     </row>
     <row r="395">
@@ -5968,7 +5968,7 @@
         <v>2.104069571499753</v>
       </c>
       <c r="D395" t="n">
-        <v>1.679384708404541</v>
+        <v>1.679384469985962</v>
       </c>
     </row>
     <row r="396">
@@ -6010,7 +6010,7 @@
         <v>2.129841870057054</v>
       </c>
       <c r="D398" t="n">
-        <v>1.50852358341217</v>
+        <v>1.508523344993591</v>
       </c>
     </row>
     <row r="399">
@@ -6024,7 +6024,7 @@
         <v>2.202256441012899</v>
       </c>
       <c r="D399" t="n">
-        <v>1.577934265136719</v>
+        <v>1.57793390750885</v>
       </c>
     </row>
     <row r="400">
@@ -6052,7 +6052,7 @@
         <v>2.412021542859132</v>
       </c>
       <c r="D401" t="n">
-        <v>1.844905853271484</v>
+        <v>1.844905972480774</v>
       </c>
     </row>
     <row r="402">
@@ -6108,7 +6108,7 @@
         <v>2.976382395011456</v>
       </c>
       <c r="D405" t="n">
-        <v>2.541510105133057</v>
+        <v>2.541510343551636</v>
       </c>
     </row>
     <row r="406">
@@ -6136,7 +6136,7 @@
         <v>3.262430162922523</v>
       </c>
       <c r="D407" t="n">
-        <v>2.792008876800537</v>
+        <v>2.792008638381958</v>
       </c>
     </row>
     <row r="408">
@@ -6150,7 +6150,7 @@
         <v>3.388139329735639</v>
       </c>
       <c r="D408" t="n">
-        <v>2.870828628540039</v>
+        <v>2.87082839012146</v>
       </c>
     </row>
     <row r="409">
@@ -6178,7 +6178,7 @@
         <v>3.575037061373274</v>
       </c>
       <c r="D410" t="n">
-        <v>2.933392763137817</v>
+        <v>2.933393001556396</v>
       </c>
     </row>
     <row r="411">
@@ -6206,7 +6206,7 @@
         <v>3.642762980815812</v>
       </c>
       <c r="D412" t="n">
-        <v>2.886199951171875</v>
+        <v>2.886200189590454</v>
       </c>
     </row>
     <row r="413">
@@ -6234,7 +6234,7 @@
         <v>3.580083474318603</v>
       </c>
       <c r="D414" t="n">
-        <v>2.764191627502441</v>
+        <v>2.764191865921021</v>
       </c>
     </row>
     <row r="415">
@@ -6248,7 +6248,7 @@
         <v>3.511422388072559</v>
       </c>
       <c r="D415" t="n">
-        <v>2.688380002975464</v>
+        <v>2.688379764556885</v>
       </c>
     </row>
     <row r="416">
@@ -6262,7 +6262,7 @@
         <v>3.432628198580553</v>
       </c>
       <c r="D416" t="n">
-        <v>2.609620571136475</v>
+        <v>2.609620809555054</v>
       </c>
     </row>
     <row r="417">
@@ -6276,7 +6276,7 @@
         <v>3.359486096623407</v>
       </c>
       <c r="D417" t="n">
-        <v>2.532311201095581</v>
+        <v>2.53231143951416</v>
       </c>
     </row>
     <row r="418">
@@ -6360,7 +6360,7 @@
         <v>2.744047075121595</v>
       </c>
       <c r="D423" t="n">
-        <v>2.870078325271606</v>
+        <v>2.870078086853027</v>
       </c>
     </row>
     <row r="424">
@@ -6402,7 +6402,7 @@
         <v>2.194311444511083</v>
       </c>
       <c r="D426" t="n">
-        <v>1.961345195770264</v>
+        <v>1.961345553398132</v>
       </c>
     </row>
     <row r="427">
@@ -6430,7 +6430,7 @@
         <v>2.089795072417008</v>
       </c>
       <c r="D428" t="n">
-        <v>1.631315231323242</v>
+        <v>1.631315112113953</v>
       </c>
     </row>
     <row r="429">
@@ -6444,7 +6444,7 @@
         <v>2.100431381562418</v>
       </c>
       <c r="D429" t="n">
-        <v>1.576393604278564</v>
+        <v>1.576393723487854</v>
       </c>
     </row>
     <row r="430">
@@ -6458,7 +6458,7 @@
         <v>2.144760332019482</v>
       </c>
       <c r="D430" t="n">
-        <v>1.588405132293701</v>
+        <v>1.588405251502991</v>
       </c>
     </row>
     <row r="431">
@@ -6472,7 +6472,7 @@
         <v>2.217174902975327</v>
       </c>
       <c r="D431" t="n">
-        <v>1.657991170883179</v>
+        <v>1.657991290092468</v>
       </c>
     </row>
     <row r="432">
@@ -6486,7 +6486,7 @@
         <v>2.312703515566022</v>
       </c>
       <c r="D432" t="n">
-        <v>1.774309277534485</v>
+        <v>1.774309158325195</v>
       </c>
     </row>
     <row r="433">
@@ -6500,7 +6500,7 @@
         <v>2.42694000482156</v>
       </c>
       <c r="D433" t="n">
-        <v>1.925496220588684</v>
+        <v>1.925496459007263</v>
       </c>
     </row>
     <row r="434">
@@ -6542,7 +6542,7 @@
         <v>2.842185269619598</v>
       </c>
       <c r="D436" t="n">
-        <v>2.459510087966919</v>
+        <v>2.459510326385498</v>
       </c>
     </row>
     <row r="437">
@@ -6640,7 +6640,7 @@
         <v>3.640461952245881</v>
       </c>
       <c r="D443" t="n">
-        <v>3.004723310470581</v>
+        <v>3.00472354888916</v>
       </c>
     </row>
     <row r="444">
@@ -6654,7 +6654,7 @@
         <v>3.65768144277824</v>
       </c>
       <c r="D444" t="n">
-        <v>2.969692230224609</v>
+        <v>2.96969199180603</v>
       </c>
     </row>
     <row r="445">
@@ -6710,7 +6710,7 @@
         <v>3.447546660542981</v>
       </c>
       <c r="D448" t="n">
-        <v>2.694667100906372</v>
+        <v>2.694667339324951</v>
       </c>
     </row>
     <row r="449">
@@ -6738,7 +6738,7 @@
         <v>4.172431077369456</v>
       </c>
       <c r="D450" t="n">
-        <v>4.108288288116455</v>
+        <v>4.108288764953613</v>
       </c>
     </row>
     <row r="451">
@@ -6836,7 +6836,7 @@
         <v>2.251303810518231</v>
       </c>
       <c r="D457" t="n">
-        <v>2.277447938919067</v>
+        <v>2.277448177337646</v>
       </c>
     </row>
     <row r="458">
@@ -6850,7 +6850,7 @@
         <v>2.124107053662869</v>
       </c>
       <c r="D458" t="n">
-        <v>2.010225296020508</v>
+        <v>2.010225057601929</v>
       </c>
     </row>
     <row r="459">
@@ -6878,7 +6878,7 @@
         <v>2.019590681568795</v>
       </c>
       <c r="D460" t="n">
-        <v>1.679276466369629</v>
+        <v>1.679276585578918</v>
       </c>
     </row>
     <row r="461">
@@ -6892,7 +6892,7 @@
         <v>2.030226990714204</v>
       </c>
       <c r="D461" t="n">
-        <v>1.624084115028381</v>
+        <v>1.624084234237671</v>
       </c>
     </row>
     <row r="462">
@@ -6906,7 +6906,7 @@
         <v>2.074555941171269</v>
       </c>
       <c r="D462" t="n">
-        <v>1.635955929756165</v>
+        <v>1.635956168174744</v>
       </c>
     </row>
     <row r="463">
@@ -7004,7 +7004,7 @@
         <v>2.921096466125671</v>
       </c>
       <c r="D469" t="n">
-        <v>2.670754194259644</v>
+        <v>2.670754432678223</v>
       </c>
     </row>
     <row r="470">
@@ -7046,7 +7046,7 @@
         <v>3.332853400849853</v>
       </c>
       <c r="D472" t="n">
-        <v>3.000670671463013</v>
+        <v>3.000670909881592</v>
       </c>
     </row>
     <row r="473">
@@ -7158,7 +7158,7 @@
         <v>3.377342269694767</v>
       </c>
       <c r="D480" t="n">
-        <v>2.743661642074585</v>
+        <v>2.743661403656006</v>
       </c>
     </row>
     <row r="481">
@@ -7200,7 +7200,7 @@
         <v>3.783859300760902</v>
       </c>
       <c r="D483" t="n">
-        <v>3.947953939437866</v>
+        <v>3.947953701019287</v>
       </c>
     </row>
     <row r="484">
@@ -7214,7 +7214,7 @@
         <v>3.47203683695092</v>
       </c>
       <c r="D484" t="n">
-        <v>3.756414890289307</v>
+        <v>3.756415128707886</v>
       </c>
     </row>
     <row r="485">
@@ -7242,7 +7242,7 @@
         <v>2.804429729284334</v>
       </c>
       <c r="D486" t="n">
-        <v>3.229934453964233</v>
+        <v>3.229934215545654</v>
       </c>
     </row>
     <row r="487">
@@ -7256,7 +7256,7 @@
         <v>2.513824652092983</v>
       </c>
       <c r="D487" t="n">
-        <v>2.910299301147461</v>
+        <v>2.910299062728882</v>
       </c>
     </row>
     <row r="488">
@@ -7298,7 +7298,7 @@
         <v>1.964089021482471</v>
       </c>
       <c r="D490" t="n">
-        <v>1.998578071594238</v>
+        <v>1.998578190803528</v>
       </c>
     </row>
     <row r="491">
@@ -7312,7 +7312,7 @@
         <v>1.888765610433569</v>
       </c>
       <c r="D491" t="n">
-        <v>1.795522332191467</v>
+        <v>1.795522212982178</v>
       </c>
     </row>
     <row r="492">
@@ -7354,7 +7354,7 @@
         <v>1.914537908990871</v>
       </c>
       <c r="D494" t="n">
-        <v>1.622170090675354</v>
+        <v>1.622170209884644</v>
       </c>
     </row>
     <row r="495">
@@ -7368,7 +7368,7 @@
         <v>1.986952479946716</v>
       </c>
       <c r="D495" t="n">
-        <v>1.691480159759521</v>
+        <v>1.691480398178101</v>
       </c>
     </row>
     <row r="496">
@@ -7382,7 +7382,7 @@
         <v>2.082481092537411</v>
       </c>
       <c r="D496" t="n">
-        <v>1.807671070098877</v>
+        <v>1.807670831680298</v>
       </c>
     </row>
     <row r="497">
@@ -7424,7 +7424,7 @@
         <v>2.465381657411681</v>
       </c>
       <c r="D499" t="n">
-        <v>2.31417989730835</v>
+        <v>2.314179658889771</v>
       </c>
     </row>
     <row r="500">
@@ -7508,7 +7508,7 @@
         <v>3.27897659244607</v>
       </c>
       <c r="D505" t="n">
-        <v>3.031860828399658</v>
+        <v>3.031861066818237</v>
       </c>
     </row>
     <row r="506">
@@ -7550,7 +7550,7 @@
         <v>3.427459019749628</v>
       </c>
       <c r="D508" t="n">
-        <v>3.002107381820679</v>
+        <v>3.002107620239258</v>
       </c>
     </row>
     <row r="509">
@@ -7620,7 +7620,7 @@
         <v>3.144182135557223</v>
       </c>
       <c r="D513" t="n">
-        <v>2.650645732879639</v>
+        <v>2.650645971298218</v>
       </c>
     </row>
     <row r="514">
@@ -7662,7 +7662,7 @@
         <v>3.228256295380858</v>
       </c>
       <c r="D516" t="n">
-        <v>3.657936096191406</v>
+        <v>3.657935857772827</v>
       </c>
     </row>
     <row r="517">
@@ -7690,7 +7690,7 @@
         <v>2.560649187714273</v>
       </c>
       <c r="D518" t="n">
-        <v>3.132712841033936</v>
+        <v>3.132713079452515</v>
       </c>
     </row>
     <row r="519">
@@ -7732,7 +7732,7 @@
         <v>1.847505236767772</v>
       </c>
       <c r="D521" t="n">
-        <v>2.16812539100647</v>
+        <v>2.168125629425049</v>
       </c>
     </row>
     <row r="522">
@@ -7760,7 +7760,7 @@
         <v>1.644985068863508</v>
       </c>
       <c r="D523" t="n">
-        <v>1.695481896400452</v>
+        <v>1.695482015609741</v>
       </c>
     </row>
     <row r="524">
@@ -7788,7 +7788,7 @@
         <v>1.626428416963745</v>
       </c>
       <c r="D525" t="n">
-        <v>1.509222626686096</v>
+        <v>1.509222745895386</v>
       </c>
     </row>
     <row r="526">
@@ -7802,7 +7802,7 @@
         <v>1.67075736742081</v>
       </c>
       <c r="D526" t="n">
-        <v>1.520223259925842</v>
+        <v>1.520223498344421</v>
       </c>
     </row>
     <row r="527">
@@ -7816,7 +7816,7 @@
         <v>1.743171938376655</v>
       </c>
       <c r="D527" t="n">
-        <v>1.589127779006958</v>
+        <v>1.589127659797668</v>
       </c>
     </row>
     <row r="528">
@@ -7830,7 +7830,7 @@
         <v>1.838700550967349</v>
       </c>
       <c r="D528" t="n">
-        <v>1.70499050617218</v>
+        <v>1.704990386962891</v>
       </c>
     </row>
     <row r="529">
@@ -7858,7 +7858,7 @@
         <v>2.081861083696401</v>
       </c>
       <c r="D530" t="n">
-        <v>2.028793811798096</v>
+        <v>2.028794050216675</v>
       </c>
     </row>
     <row r="531">
@@ -7942,7 +7942,7 @@
         <v>2.929054827099395</v>
       </c>
       <c r="D536" t="n">
-        <v>2.879712820053101</v>
+        <v>2.87971305847168</v>
       </c>
     </row>
     <row r="537">
@@ -7984,7 +7984,7 @@
         <v>3.166458987647209</v>
       </c>
       <c r="D539" t="n">
-        <v>2.931053876876831</v>
+        <v>2.93105411529541</v>
       </c>
     </row>
     <row r="540">
@@ -8026,7 +8026,7 @@
         <v>3.120998971682359</v>
       </c>
       <c r="D542" t="n">
-        <v>2.774835348129272</v>
+        <v>2.774835586547852</v>
       </c>
     </row>
     <row r="543">
@@ -8180,7 +8180,7 @@
         <v>1.539191721798274</v>
       </c>
       <c r="D553" t="n">
-        <v>1.972310781478882</v>
+        <v>1.972310662269592</v>
       </c>
     </row>
     <row r="554">
@@ -8208,7 +8208,7 @@
         <v>1.33667155389401</v>
       </c>
       <c r="D555" t="n">
-        <v>1.498042106628418</v>
+        <v>1.498042225837708</v>
       </c>
     </row>
     <row r="556">
@@ -8222,7 +8222,7 @@
         <v>1.307478592848837</v>
       </c>
       <c r="D556" t="n">
-        <v>1.367331027984619</v>
+        <v>1.367331147193909</v>
       </c>
     </row>
     <row r="557">
@@ -8236,7 +8236,7 @@
         <v>1.318114901994247</v>
       </c>
       <c r="D557" t="n">
-        <v>1.310356855392456</v>
+        <v>1.310356974601746</v>
       </c>
     </row>
     <row r="558">
@@ -8250,7 +8250,7 @@
         <v>1.362443852451311</v>
       </c>
       <c r="D558" t="n">
-        <v>1.320819020271301</v>
+        <v>1.320818901062012</v>
       </c>
     </row>
     <row r="559">
@@ -8264,7 +8264,7 @@
         <v>1.434858423407156</v>
       </c>
       <c r="D559" t="n">
-        <v>1.389294624328613</v>
+        <v>1.389294505119324</v>
       </c>
     </row>
     <row r="560">
@@ -8278,7 +8278,7 @@
         <v>1.530387035997851</v>
       </c>
       <c r="D560" t="n">
-        <v>1.50481104850769</v>
+        <v>1.50481116771698</v>
       </c>
     </row>
     <row r="561">
@@ -8292,7 +8292,7 @@
         <v>1.644623525253389</v>
       </c>
       <c r="D561" t="n">
-        <v>1.655346751213074</v>
+        <v>1.655346870422363</v>
       </c>
     </row>
     <row r="562">
@@ -8306,7 +8306,7 @@
         <v>1.773547568726903</v>
       </c>
       <c r="D562" t="n">
-        <v>1.828013062477112</v>
+        <v>1.828013181686401</v>
       </c>
     </row>
     <row r="563">
@@ -8320,7 +8320,7 @@
         <v>1.913287600872122</v>
       </c>
       <c r="D563" t="n">
-        <v>2.009513378143311</v>
+        <v>2.00951361656189</v>
       </c>
     </row>
     <row r="564">
@@ -8348,7 +8348,7 @@
         <v>2.208984377405714</v>
       </c>
       <c r="D565" t="n">
-        <v>2.34960412979126</v>
+        <v>2.349603891372681</v>
       </c>
     </row>
     <row r="566">
@@ -8376,7 +8376,7 @@
         <v>2.495032145316779</v>
       </c>
       <c r="D567" t="n">
-        <v>2.598594665527344</v>
+        <v>2.598594903945923</v>
       </c>
     </row>
     <row r="568">
@@ -8390,7 +8390,7 @@
         <v>2.620741312129896</v>
       </c>
       <c r="D568" t="n">
-        <v>2.676916122436523</v>
+        <v>2.676915884017944</v>
       </c>
     </row>
     <row r="569">
@@ -8418,7 +8418,7 @@
         <v>2.80763904376753</v>
       </c>
       <c r="D570" t="n">
-        <v>2.739230632781982</v>
+        <v>2.739230394363403</v>
       </c>
     </row>
     <row r="571">
@@ -8474,7 +8474,7 @@
         <v>2.812685456712861</v>
       </c>
       <c r="D574" t="n">
-        <v>2.570930480957031</v>
+        <v>2.570930242538452</v>
       </c>
     </row>
     <row r="575">
@@ -8488,7 +8488,7 @@
         <v>2.744024370466815</v>
       </c>
       <c r="D575" t="n">
-        <v>2.495157957077026</v>
+        <v>2.495158195495605</v>
       </c>
     </row>
     <row r="576">
@@ -8516,7 +8516,7 @@
         <v>2.592088079017663</v>
       </c>
       <c r="D577" t="n">
-        <v>2.33881950378418</v>
+        <v>2.338819742202759</v>
       </c>
     </row>
     <row r="578">
@@ -8544,7 +8544,7 @@
         <v>2.891853953088683</v>
       </c>
       <c r="D579" t="n">
-        <v>3.380033493041992</v>
+        <v>3.380033254623413</v>
       </c>
     </row>
     <row r="580">
@@ -8558,7 +8558,7 @@
         <v>2.5800314892787</v>
       </c>
       <c r="D580" t="n">
-        <v>3.191960096359253</v>
+        <v>3.191960334777832</v>
       </c>
     </row>
     <row r="581">
@@ -8572,7 +8572,7 @@
         <v>2.240314034521995</v>
       </c>
       <c r="D581" t="n">
-        <v>2.954391717910767</v>
+        <v>2.954391956329346</v>
       </c>
     </row>
     <row r="582">
@@ -8586,7 +8586,7 @@
         <v>1.912424381612114</v>
       </c>
       <c r="D582" t="n">
-        <v>2.669801235198975</v>
+        <v>2.669800996780396</v>
       </c>
     </row>
     <row r="583">
@@ -8600,7 +8600,7 @@
         <v>1.621819304420764</v>
       </c>
       <c r="D583" t="n">
-        <v>2.350411891937256</v>
+        <v>2.350412130355835</v>
       </c>
     </row>
     <row r="584">
@@ -8642,7 +8642,7 @@
         <v>1.072083673810251</v>
       </c>
       <c r="D586" t="n">
-        <v>1.433691024780273</v>
+        <v>1.433690786361694</v>
       </c>
     </row>
     <row r="587">
@@ -8656,7 +8656,7 @@
         <v>0.9967602627613497</v>
       </c>
       <c r="D587" t="n">
-        <v>1.228338241577148</v>
+        <v>1.228338479995728</v>
       </c>
     </row>
     <row r="588">
@@ -8698,7 +8698,7 @@
         <v>1.022532561318651</v>
       </c>
       <c r="D590" t="n">
-        <v>1.049618601799011</v>
+        <v>1.049618482589722</v>
       </c>
     </row>
     <row r="591">
@@ -8740,7 +8740,7 @@
         <v>1.304712234120729</v>
       </c>
       <c r="D593" t="n">
-        <v>1.383540630340576</v>
+        <v>1.383540868759155</v>
       </c>
     </row>
     <row r="594">
@@ -8754,7 +8754,7 @@
         <v>1.433636277594243</v>
       </c>
       <c r="D594" t="n">
-        <v>1.556075572967529</v>
+        <v>1.55607545375824</v>
       </c>
     </row>
     <row r="595">
@@ -8768,7 +8768,7 @@
         <v>1.573376309739461</v>
       </c>
       <c r="D595" t="n">
-        <v>1.737429141998291</v>
+        <v>1.737429261207581</v>
       </c>
     </row>
     <row r="596">
@@ -8782,7 +8782,7 @@
         <v>1.719957498918767</v>
       </c>
       <c r="D596" t="n">
-        <v>1.914820909500122</v>
+        <v>1.914820790290833</v>
       </c>
     </row>
     <row r="597">
@@ -8796,7 +8796,7 @@
         <v>1.869073086273053</v>
       </c>
       <c r="D597" t="n">
-        <v>2.077162504196167</v>
+        <v>2.077162742614746</v>
       </c>
     </row>
     <row r="598">
@@ -8810,7 +8810,7 @@
         <v>2.015917362800032</v>
       </c>
       <c r="D598" t="n">
-        <v>2.215983152389526</v>
+        <v>2.215982913970947</v>
       </c>
     </row>
     <row r="599">
@@ -8838,7 +8838,7 @@
         <v>2.280830020997236</v>
       </c>
       <c r="D600" t="n">
-        <v>2.404017210006714</v>
+        <v>2.404017448425293</v>
       </c>
     </row>
     <row r="601">
@@ -8852,7 +8852,7 @@
         <v>2.38697124477385</v>
       </c>
       <c r="D601" t="n">
-        <v>2.450319051742554</v>
+        <v>2.450319290161133</v>
       </c>
     </row>
     <row r="602">
@@ -8922,7 +8922,7 @@
         <v>2.4727741655802</v>
       </c>
       <c r="D606" t="n">
-        <v>2.297940969467163</v>
+        <v>2.297940731048584</v>
       </c>
     </row>
     <row r="607">
@@ -8950,7 +8950,7 @@
         <v>2.32531888984215</v>
       </c>
       <c r="D608" t="n">
-        <v>2.143120765686035</v>
+        <v>2.143120527267456</v>
       </c>
     </row>
     <row r="609">
@@ -8964,7 +8964,7 @@
         <v>2.252176787885003</v>
       </c>
       <c r="D609" t="n">
-        <v>2.06547474861145</v>
+        <v>2.065474510192871</v>
       </c>
     </row>
     <row r="610">
@@ -8992,7 +8992,7 @@
         <v>2.564493977053292</v>
       </c>
       <c r="D611" t="n">
-        <v>3.093121528625488</v>
+        <v>3.093121290206909</v>
       </c>
     </row>
     <row r="612">
@@ -9048,7 +9048,7 @@
         <v>1.294459328385373</v>
       </c>
       <c r="D615" t="n">
-        <v>2.067911386489868</v>
+        <v>2.067911624908447</v>
       </c>
     </row>
     <row r="616">
@@ -9104,7 +9104,7 @@
         <v>0.6694002867259587</v>
       </c>
       <c r="D619" t="n">
-        <v>0.9452005624771118</v>
+        <v>0.9452002048492432</v>
       </c>
     </row>
     <row r="620">
@@ -9132,7 +9132,7 @@
         <v>0.6508436348261954</v>
       </c>
       <c r="D621" t="n">
-        <v>0.7558108568191528</v>
+        <v>0.7558109760284424</v>
       </c>
     </row>
     <row r="622">
@@ -9146,7 +9146,7 @@
         <v>0.6951725852832598</v>
       </c>
       <c r="D622" t="n">
-        <v>0.7657471895217896</v>
+        <v>0.7657474279403687</v>
       </c>
     </row>
     <row r="623">
@@ -9174,7 +9174,7 @@
         <v>0.8631157688297999</v>
       </c>
       <c r="D624" t="n">
-        <v>0.9493156671524048</v>
+        <v>0.9493154287338257</v>
       </c>
     </row>
     <row r="625">
@@ -9188,7 +9188,7 @@
         <v>0.977352258085338</v>
       </c>
       <c r="D625" t="n">
-        <v>1.099824547767639</v>
+        <v>1.099824666976929</v>
       </c>
     </row>
     <row r="626">
@@ -9202,7 +9202,7 @@
         <v>1.106276301558852</v>
       </c>
       <c r="D626" t="n">
-        <v>1.272488117218018</v>
+        <v>1.272488355636597</v>
       </c>
     </row>
     <row r="627">
@@ -9216,7 +9216,7 @@
         <v>1.24601633370407</v>
       </c>
       <c r="D627" t="n">
-        <v>1.45395815372467</v>
+        <v>1.453958034515381</v>
       </c>
     </row>
     <row r="628">
@@ -9230,7 +9230,7 @@
         <v>1.392597522883376</v>
       </c>
       <c r="D628" t="n">
-        <v>1.631443738937378</v>
+        <v>1.631443977355957</v>
       </c>
     </row>
     <row r="629">
@@ -9244,7 +9244,7 @@
         <v>1.541713110237662</v>
       </c>
       <c r="D629" t="n">
-        <v>1.793865323066711</v>
+        <v>1.793865442276001</v>
       </c>
     </row>
     <row r="630">
@@ -9258,7 +9258,7 @@
         <v>1.688557386764641</v>
       </c>
       <c r="D630" t="n">
-        <v>1.932768940925598</v>
+        <v>1.932769179344177</v>
       </c>
     </row>
     <row r="631">
@@ -9272,7 +9272,7 @@
         <v>1.827760878148728</v>
       </c>
       <c r="D631" t="n">
-        <v>2.042705297470093</v>
+        <v>2.042705059051514</v>
       </c>
     </row>
     <row r="632">
@@ -9286,7 +9286,7 @@
         <v>1.953470044961845</v>
       </c>
       <c r="D632" t="n">
-        <v>2.121058940887451</v>
+        <v>2.121058702468872</v>
       </c>
     </row>
     <row r="633">
@@ -9328,7 +9328,7 @@
         <v>2.190874205509659</v>
       </c>
       <c r="D635" t="n">
-        <v>2.172405004501343</v>
+        <v>2.172404766082764</v>
       </c>
     </row>
     <row r="636">
@@ -9342,7 +9342,7 @@
         <v>2.208093696042017</v>
       </c>
       <c r="D636" t="n">
-        <v>2.137534618377686</v>
+        <v>2.137534379959106</v>
       </c>
     </row>
     <row r="637">
@@ -9356,7 +9356,7 @@
         <v>2.191786697843885</v>
       </c>
       <c r="D637" t="n">
-        <v>2.083797454833984</v>
+        <v>2.083797693252563</v>
       </c>
     </row>
     <row r="638">
@@ -9370,7 +9370,7 @@
         <v>2.145414189544809</v>
       </c>
       <c r="D638" t="n">
-        <v>2.016400814056396</v>
+        <v>2.016401052474976</v>
       </c>
     </row>
     <row r="639">
@@ -9398,7 +9398,7 @@
         <v>1.997958913806759</v>
       </c>
       <c r="D640" t="n">
-        <v>1.861843585968018</v>
+        <v>1.861843705177307</v>
       </c>
     </row>
     <row r="641">
@@ -9440,7 +9440,7 @@
         <v>2.298822965998724</v>
       </c>
       <c r="D643" t="n">
-        <v>2.852313995361328</v>
+        <v>2.852313756942749</v>
       </c>
     </row>
     <row r="644">
@@ -9496,7 +9496,7 @@
         <v>1.028788317330804</v>
       </c>
       <c r="D647" t="n">
-        <v>1.832423329353333</v>
+        <v>1.832423448562622</v>
       </c>
     </row>
     <row r="648">
@@ -9510,7 +9510,7 @@
         <v>0.7893197318704457</v>
       </c>
       <c r="D648" t="n">
-        <v>1.501392483711243</v>
+        <v>1.501392602920532</v>
       </c>
     </row>
     <row r="649">
@@ -9524,7 +9524,7 @@
         <v>0.606249443575654</v>
       </c>
       <c r="D649" t="n">
-        <v>1.186476469039917</v>
+        <v>1.186476707458496</v>
       </c>
     </row>
     <row r="650">
@@ -9552,7 +9552,7 @@
         <v>0.4037292756713904</v>
       </c>
       <c r="D651" t="n">
-        <v>0.7100585699081421</v>
+        <v>0.7100586891174316</v>
       </c>
     </row>
     <row r="652">
@@ -9566,7 +9566,7 @@
         <v>0.3745363146262179</v>
       </c>
       <c r="D652" t="n">
-        <v>0.5782661437988281</v>
+        <v>0.5782663822174072</v>
       </c>
     </row>
     <row r="653">
@@ -9580,7 +9580,7 @@
         <v>0.3851726237716271</v>
       </c>
       <c r="D653" t="n">
-        <v>0.5204732418060303</v>
+        <v>0.5204730033874512</v>
       </c>
     </row>
     <row r="654">
@@ -9636,7 +9636,7 @@
         <v>0.7116812470307694</v>
       </c>
       <c r="D657" t="n">
-        <v>0.8652689456939697</v>
+        <v>0.8652690649032593</v>
       </c>
     </row>
     <row r="658">
@@ -9664,7 +9664,7 @@
         <v>0.980345322649502</v>
       </c>
       <c r="D659" t="n">
-        <v>1.220039010047913</v>
+        <v>1.220039129257202</v>
       </c>
     </row>
     <row r="660">
@@ -9678,7 +9678,7 @@
         <v>1.126926511828807</v>
       </c>
       <c r="D660" t="n">
-        <v>1.397815942764282</v>
+        <v>1.397815704345703</v>
       </c>
     </row>
     <row r="661">
@@ -9692,7 +9692,7 @@
         <v>1.276042099183094</v>
       </c>
       <c r="D661" t="n">
-        <v>1.560513257980347</v>
+        <v>1.560513138771057</v>
       </c>
     </row>
     <row r="662">
@@ -9720,7 +9720,7 @@
         <v>1.56208986709416</v>
       </c>
       <c r="D663" t="n">
-        <v>1.809933423995972</v>
+        <v>1.809933304786682</v>
       </c>
     </row>
     <row r="664">
@@ -9776,7 +9776,7 @@
         <v>1.925203194455091</v>
       </c>
       <c r="D667" t="n">
-        <v>1.941214919090271</v>
+        <v>1.941214561462402</v>
       </c>
     </row>
     <row r="668">
@@ -9804,7 +9804,7 @@
         <v>1.926115686789317</v>
       </c>
       <c r="D669" t="n">
-        <v>1.853464007377625</v>
+        <v>1.853463768959045</v>
       </c>
     </row>
     <row r="670">
@@ -9818,7 +9818,7 @@
         <v>1.879743178490241</v>
       </c>
       <c r="D670" t="n">
-        <v>1.786437749862671</v>
+        <v>1.78643786907196</v>
       </c>
     </row>
     <row r="671">
@@ -9860,7 +9860,7 @@
         <v>1.659145800795044</v>
       </c>
       <c r="D673" t="n">
-        <v>1.55506432056427</v>
+        <v>1.55506443977356</v>
       </c>
     </row>
     <row r="674">
@@ -9874,7 +9874,7 @@
         <v>2.367752695830097</v>
       </c>
       <c r="D674" t="n">
-        <v>2.827659368515015</v>
+        <v>2.827659130096436</v>
       </c>
     </row>
     <row r="675">
@@ -9916,7 +9916,7 @@
         <v>1.487659032835252</v>
       </c>
       <c r="D677" t="n">
-        <v>2.273895263671875</v>
+        <v>2.273895025253296</v>
       </c>
     </row>
     <row r="678">
@@ -9930,7 +9930,7 @@
         <v>1.159769379925371</v>
       </c>
       <c r="D678" t="n">
-        <v>1.992846369743347</v>
+        <v>1.992846488952637</v>
       </c>
     </row>
     <row r="679">
@@ -9958,7 +9958,7 @@
         <v>0.6296957172736617</v>
       </c>
       <c r="D680" t="n">
-        <v>1.345340490341187</v>
+        <v>1.345340251922607</v>
       </c>
     </row>
     <row r="681">
@@ -9986,7 +9986,7 @@
         <v>0.319428672123508</v>
       </c>
       <c r="D682" t="n">
-        <v>0.7601613998413086</v>
+        <v>0.760161280632019</v>
       </c>
     </row>
     <row r="683">
@@ -10014,7 +10014,7 @@
         <v>0.2149123000294344</v>
       </c>
       <c r="D684" t="n">
-        <v>0.4223593473434448</v>
+        <v>0.4223591089248657</v>
       </c>
     </row>
     <row r="685">
@@ -10028,7 +10028,7 @@
         <v>0.2255486091748435</v>
       </c>
       <c r="D685" t="n">
-        <v>0.3645626306533813</v>
+        <v>0.36456298828125</v>
       </c>
     </row>
     <row r="686">
@@ -10042,7 +10042,7 @@
         <v>0.2698775596319078</v>
       </c>
       <c r="D686" t="n">
-        <v>0.3746534585952759</v>
+        <v>0.374653697013855</v>
       </c>
     </row>
     <row r="687">
@@ -10056,7 +10056,7 @@
         <v>0.3422921305877529</v>
       </c>
       <c r="D687" t="n">
-        <v>0.4432092905044556</v>
+        <v>0.443209171295166</v>
       </c>
     </row>
     <row r="688">
@@ -10070,7 +10070,7 @@
         <v>0.4378207431784478</v>
       </c>
       <c r="D688" t="n">
-        <v>0.5591591596603394</v>
+        <v>0.5591593980789185</v>
       </c>
     </row>
     <row r="689">
@@ -10084,7 +10084,7 @@
         <v>0.5520572324339859</v>
       </c>
       <c r="D689" t="n">
-        <v>0.7103348970413208</v>
+        <v>0.7103352546691895</v>
       </c>
     </row>
     <row r="690">
@@ -10098,7 +10098,7 @@
         <v>0.6809812759074996</v>
       </c>
       <c r="D690" t="n">
-        <v>0.8836963176727295</v>
+        <v>0.8836965560913086</v>
       </c>
     </row>
     <row r="691">
@@ -10112,7 +10112,7 @@
         <v>0.8207213080527183</v>
       </c>
       <c r="D691" t="n">
-        <v>1.065841674804688</v>
+        <v>1.065841913223267</v>
       </c>
     </row>
     <row r="692">
@@ -10126,7 +10126,7 @@
         <v>0.9673024972320239</v>
       </c>
       <c r="D692" t="n">
-        <v>1.243959784507751</v>
+        <v>1.243959546089172</v>
       </c>
     </row>
     <row r="693">
@@ -10154,7 +10154,7 @@
         <v>1.263262361113289</v>
       </c>
       <c r="D694" t="n">
-        <v>1.546490907669067</v>
+        <v>1.546490788459778</v>
       </c>
     </row>
     <row r="695">
@@ -10168,7 +10168,7 @@
         <v>1.402465852497376</v>
       </c>
       <c r="D695" t="n">
-        <v>1.657074451446533</v>
+        <v>1.657074213027954</v>
       </c>
     </row>
     <row r="696">
@@ -10196,7 +10196,7 @@
         <v>1.634316243087108</v>
       </c>
       <c r="D697" t="n">
-        <v>1.783443808555603</v>
+        <v>1.783444046974182</v>
       </c>
     </row>
     <row r="698">
@@ -10224,7 +10224,7 @@
         <v>1.765579179858307</v>
       </c>
       <c r="D699" t="n">
-        <v>1.79007625579834</v>
+        <v>1.79007613658905</v>
       </c>
     </row>
     <row r="700">
@@ -10252,7 +10252,7 @@
         <v>1.766491672192533</v>
       </c>
       <c r="D701" t="n">
-        <v>1.703223347663879</v>
+        <v>1.703223466873169</v>
       </c>
     </row>
     <row r="702">
@@ -10280,7 +10280,7 @@
         <v>1.651458077647412</v>
       </c>
       <c r="D703" t="n">
-        <v>1.561525583267212</v>
+        <v>1.561525464057922</v>
       </c>
     </row>
     <row r="704">
@@ -10308,7 +10308,7 @@
         <v>1.49952178619826</v>
       </c>
       <c r="D705" t="n">
-        <v>1.405980587005615</v>
+        <v>1.405980825424194</v>
       </c>
     </row>
     <row r="706">
@@ -10350,7 +10350,7 @@
         <v>1.801622710174639</v>
       </c>
       <c r="D708" t="n">
-        <v>2.423490285873413</v>
+        <v>2.423490047454834</v>
       </c>
     </row>
     <row r="709">
@@ -10364,7 +10364,7 @@
         <v>1.461905255417934</v>
       </c>
       <c r="D709" t="n">
-        <v>2.191992998123169</v>
+        <v>2.19199275970459</v>
       </c>
     </row>
     <row r="710">
@@ -10378,7 +10378,7 @@
         <v>1.134015602508053</v>
       </c>
       <c r="D710" t="n">
-        <v>1.912266135215759</v>
+        <v>1.912266612052917</v>
       </c>
     </row>
     <row r="711">
@@ -10392,7 +10392,7 @@
         <v>0.843410525316703</v>
       </c>
       <c r="D711" t="n">
-        <v>1.596193552017212</v>
+        <v>1.596193671226501</v>
       </c>
     </row>
     <row r="712">
@@ -10406,7 +10406,7 @@
         <v>0.6039419398563439</v>
       </c>
       <c r="D712" t="n">
-        <v>1.266318559646606</v>
+        <v>1.266318798065186</v>
       </c>
     </row>
     <row r="713">
@@ -10448,7 +10448,7 @@
         <v>0.2183514836572893</v>
       </c>
       <c r="D715" t="n">
-        <v>0.4754284620285034</v>
+        <v>0.4754282236099243</v>
       </c>
     </row>
     <row r="716">
@@ -10504,7 +10504,7 @@
         <v>0.3165383531704351</v>
       </c>
       <c r="D719" t="n">
-        <v>0.3644682168960571</v>
+        <v>0.364467978477478</v>
       </c>
     </row>
     <row r="720">
@@ -10616,7 +10616,7 @@
         <v>1.376712075080059</v>
       </c>
       <c r="D727" t="n">
-        <v>1.580600261688232</v>
+        <v>1.580600500106812</v>
       </c>
     </row>
     <row r="728">
@@ -10630,7 +10630,7 @@
         <v>1.502421241893175</v>
       </c>
       <c r="D728" t="n">
-        <v>1.659985184669495</v>
+        <v>1.659985423088074</v>
       </c>
     </row>
     <row r="729">
@@ -10644,7 +10644,7 @@
         <v>1.60856246566979</v>
       </c>
       <c r="D729" t="n">
-        <v>1.707631468772888</v>
+        <v>1.707631587982178</v>
       </c>
     </row>
     <row r="730">
@@ -10672,7 +10672,7 @@
         <v>1.739825402440989</v>
       </c>
       <c r="D731" t="n">
-        <v>1.715032458305359</v>
+        <v>1.715032577514648</v>
       </c>
     </row>
     <row r="732">
@@ -10700,7 +10700,7 @@
         <v>1.740737894775215</v>
       </c>
       <c r="D733" t="n">
-        <v>1.628907322883606</v>
+        <v>1.628907442092896</v>
       </c>
     </row>
     <row r="734">
@@ -10714,7 +10714,7 @@
         <v>1.694365386476139</v>
       </c>
       <c r="D734" t="n">
-        <v>1.562556982040405</v>
+        <v>1.562556862831116</v>
       </c>
     </row>
     <row r="735">
@@ -10770,7 +10770,7 @@
         <v>2.450729817739784</v>
       </c>
       <c r="D738" t="n">
-        <v>2.712460279464722</v>
+        <v>2.712460517883301</v>
       </c>
     </row>
     <row r="739">
@@ -10798,7 +10798,7 @@
         <v>1.910353609501645</v>
       </c>
       <c r="D740" t="n">
-        <v>2.39839506149292</v>
+        <v>2.398394823074341</v>
       </c>
     </row>
     <row r="741">
@@ -10812,7 +10812,7 @@
         <v>1.57063615474494</v>
       </c>
       <c r="D741" t="n">
-        <v>2.168420314788818</v>
+        <v>2.168420076370239</v>
       </c>
     </row>
     <row r="742">
@@ -10826,7 +10826,7 @@
         <v>1.24274650183506</v>
       </c>
       <c r="D742" t="n">
-        <v>1.889982342720032</v>
+        <v>1.889982581138611</v>
       </c>
     </row>
     <row r="743">
@@ -10854,7 +10854,7 @@
         <v>0.7126728391833501</v>
       </c>
       <c r="D744" t="n">
-        <v>1.245578408241272</v>
+        <v>1.245578169822693</v>
       </c>
     </row>
     <row r="745">
@@ -10868,7 +10868,7 @@
         <v>0.5296025508885587</v>
       </c>
       <c r="D745" t="n">
-        <v>0.9314403533935547</v>
+        <v>0.9314405918121338</v>
       </c>
     </row>
     <row r="746">
@@ -10896,7 +10896,7 @@
         <v>0.327082382984295</v>
       </c>
       <c r="D747" t="n">
-        <v>0.4548412561416626</v>
+        <v>0.4548413753509521</v>
       </c>
     </row>
     <row r="748">
@@ -10938,7 +10938,7 @@
         <v>0.352854681541596</v>
       </c>
       <c r="D750" t="n">
-        <v>0.2748334407806396</v>
+        <v>0.2748337984085083</v>
       </c>
     </row>
     <row r="751">
@@ -10952,7 +10952,7 @@
         <v>0.4252692524974411</v>
       </c>
       <c r="D751" t="n">
-        <v>0.343613862991333</v>
+        <v>0.3436135053634644</v>
       </c>
     </row>
     <row r="752">
@@ -10966,7 +10966,7 @@
         <v>0.520797865088136</v>
       </c>
       <c r="D752" t="n">
-        <v>0.459964394569397</v>
+        <v>0.4599641561508179</v>
       </c>
     </row>
     <row r="753">
@@ -10980,7 +10980,7 @@
         <v>0.6350343543436741</v>
       </c>
       <c r="D753" t="n">
-        <v>0.6116483211517334</v>
+        <v>0.6116480827331543</v>
       </c>
     </row>
     <row r="754">
@@ -10994,7 +10994,7 @@
         <v>0.763958397817188</v>
       </c>
       <c r="D754" t="n">
-        <v>0.7855507135391235</v>
+        <v>0.7855510711669922</v>
       </c>
     </row>
     <row r="755">
@@ -11022,7 +11022,7 @@
         <v>1.050279619141712</v>
       </c>
       <c r="D756" t="n">
-        <v>1.146801948547363</v>
+        <v>1.146802186965942</v>
       </c>
     </row>
     <row r="757">
@@ -11036,7 +11036,7 @@
         <v>1.199395206495999</v>
       </c>
       <c r="D757" t="n">
-        <v>1.31025767326355</v>
+        <v>1.310257434844971</v>
       </c>
     </row>
     <row r="758">
@@ -11064,7 +11064,7 @@
         <v>1.485442974407064</v>
       </c>
       <c r="D759" t="n">
-        <v>1.561237454414368</v>
+        <v>1.561237573623657</v>
       </c>
     </row>
     <row r="760">
@@ -11078,7 +11078,7 @@
         <v>1.611152141220181</v>
       </c>
       <c r="D760" t="n">
-        <v>1.640829086303711</v>
+        <v>1.640828967094421</v>
       </c>
     </row>
     <row r="761">
@@ -11092,7 +11092,7 @@
         <v>1.717293364996796</v>
       </c>
       <c r="D761" t="n">
-        <v>1.688714265823364</v>
+        <v>1.688714146614075</v>
       </c>
     </row>
     <row r="762">
@@ -11204,7 +11204,7 @@
         <v>1.582498908107948</v>
       </c>
       <c r="D769" t="n">
-        <v>1.314788103103638</v>
+        <v>1.314788222312927</v>
       </c>
     </row>
     <row r="770">
@@ -11218,7 +11218,7 @@
         <v>2.661876049444577</v>
       </c>
       <c r="D770" t="n">
-        <v>2.722378730773926</v>
+        <v>2.722378492355347</v>
       </c>
     </row>
     <row r="771">
@@ -11260,7 +11260,7 @@
         <v>1.781782386449733</v>
       </c>
       <c r="D773" t="n">
-        <v>2.18285346031189</v>
+        <v>2.182853221893311</v>
       </c>
     </row>
     <row r="774">
@@ -11344,7 +11344,7 @@
         <v>0.538228614689088</v>
       </c>
       <c r="D779" t="n">
-        <v>0.4722054004669189</v>
+        <v>0.4722055196762085</v>
       </c>
     </row>
     <row r="780">
@@ -11386,7 +11386,7 @@
         <v>0.5640009132463888</v>
       </c>
       <c r="D782" t="n">
-        <v>0.2916542291641235</v>
+        <v>0.2916537523269653</v>
       </c>
     </row>
     <row r="783">
@@ -11400,7 +11400,7 @@
         <v>0.6364154842022343</v>
       </c>
       <c r="D783" t="n">
-        <v>0.3604112863540649</v>
+        <v>0.3604110479354858</v>
       </c>
     </row>
     <row r="784">
@@ -11414,7 +11414,7 @@
         <v>0.7319440967929287</v>
       </c>
       <c r="D784" t="n">
-        <v>0.4768247604370117</v>
+        <v>0.4768249988555908</v>
       </c>
     </row>
     <row r="785">
@@ -11428,7 +11428,7 @@
         <v>0.8461805860484668</v>
       </c>
       <c r="D785" t="n">
-        <v>0.6286227703094482</v>
+        <v>0.6286224126815796</v>
       </c>
     </row>
     <row r="786">
@@ -11442,7 +11442,7 @@
         <v>0.9751046295219807</v>
       </c>
       <c r="D786" t="n">
-        <v>0.8026531934738159</v>
+        <v>0.802653431892395</v>
       </c>
     </row>
     <row r="787">
@@ -11456,7 +11456,7 @@
         <v>1.114844661667199</v>
       </c>
       <c r="D787" t="n">
-        <v>0.9854308366775513</v>
+        <v>0.9854311943054199</v>
       </c>
     </row>
     <row r="788">
@@ -11498,7 +11498,7 @@
         <v>1.55738571472777</v>
       </c>
       <c r="D790" t="n">
-        <v>1.467631936073303</v>
+        <v>1.467632174491882</v>
       </c>
     </row>
     <row r="791">
@@ -11540,7 +11540,7 @@
         <v>1.928439596701589</v>
       </c>
       <c r="D793" t="n">
-        <v>1.706459641456604</v>
+        <v>1.706459760665894</v>
       </c>
     </row>
     <row r="794">
@@ -11554,7 +11554,7 @@
         <v>2.009196104562608</v>
       </c>
       <c r="D794" t="n">
-        <v>1.724288463592529</v>
+        <v>1.72428834438324</v>
       </c>
     </row>
     <row r="795">
@@ -11568,7 +11568,7 @@
         <v>2.059702533472788</v>
       </c>
       <c r="D795" t="n">
-        <v>1.71471893787384</v>
+        <v>1.714718818664551</v>
       </c>
     </row>
     <row r="796">
@@ -11596,7 +11596,7 @@
         <v>2.060615025807015</v>
       </c>
       <c r="D797" t="n">
-        <v>1.629336714744568</v>
+        <v>1.629336595535278</v>
       </c>
     </row>
     <row r="798">
@@ -11624,7 +11624,7 @@
         <v>1.945581431261893</v>
       </c>
       <c r="D799" t="n">
-        <v>1.488442301750183</v>
+        <v>1.488442182540894</v>
       </c>
     </row>
     <row r="800">
@@ -11638,7 +11638,7 @@
         <v>1.866787241769888</v>
       </c>
       <c r="D800" t="n">
-        <v>1.410162925720215</v>
+        <v>1.410162806510925</v>
       </c>
     </row>
     <row r="801">
@@ -11652,7 +11652,7 @@
         <v>1.793645139812741</v>
       </c>
       <c r="D801" t="n">
-        <v>1.332865118980408</v>
+        <v>1.332865238189697</v>
       </c>
     </row>
     <row r="802">
@@ -11666,7 +11666,7 @@
         <v>2.914322742548753</v>
       </c>
       <c r="D802" t="n">
-        <v>2.754820585250854</v>
+        <v>2.754820108413696</v>
       </c>
     </row>
     <row r="803">
@@ -11694,7 +11694,7 @@
         <v>2.373946534310615</v>
       </c>
       <c r="D804" t="n">
-        <v>2.446723222732544</v>
+        <v>2.446723461151123</v>
       </c>
     </row>
     <row r="805">
@@ -11708,7 +11708,7 @@
         <v>2.034229079553909</v>
       </c>
       <c r="D805" t="n">
-        <v>2.219669580459595</v>
+        <v>2.219669342041016</v>
       </c>
     </row>
     <row r="806">
@@ -11736,7 +11736,7 @@
         <v>1.415734349452678</v>
       </c>
       <c r="D807" t="n">
-        <v>1.630573749542236</v>
+        <v>1.630573391914368</v>
       </c>
     </row>
     <row r="808">
@@ -11792,7 +11792,7 @@
         <v>0.7906753077932636</v>
       </c>
       <c r="D811" t="n">
-        <v>0.5120260715484619</v>
+        <v>0.5120258331298828</v>
       </c>
     </row>
     <row r="812">
@@ -11834,7 +11834,7 @@
         <v>0.816447606350565</v>
       </c>
       <c r="D814" t="n">
-        <v>0.3307653665542603</v>
+        <v>0.3307650089263916</v>
       </c>
     </row>
     <row r="815">
@@ -11848,7 +11848,7 @@
         <v>0.8888621773064098</v>
       </c>
       <c r="D815" t="n">
-        <v>0.3994237184524536</v>
+        <v>0.3994239568710327</v>
       </c>
     </row>
     <row r="816">
@@ -11862,7 +11862,7 @@
         <v>0.9843907898971047</v>
       </c>
       <c r="D816" t="n">
-        <v>0.5158191919326782</v>
+        <v>0.5158189535140991</v>
       </c>
     </row>
     <row r="817">
@@ -11876,7 +11876,7 @@
         <v>1.098627279152643</v>
       </c>
       <c r="D817" t="n">
-        <v>0.6676476001739502</v>
+        <v>0.667647123336792</v>
       </c>
     </row>
     <row r="818">
@@ -11890,7 +11890,7 @@
         <v>1.227551322626157</v>
       </c>
       <c r="D818" t="n">
-        <v>0.8417222499847412</v>
+        <v>0.8417224884033203</v>
       </c>
     </row>
     <row r="819">
@@ -11918,7 +11918,7 @@
         <v>1.513872543950681</v>
       </c>
       <c r="D820" t="n">
-        <v>1.203207969665527</v>
+        <v>1.203208208084106</v>
       </c>
     </row>
     <row r="821">
@@ -11932,7 +11932,7 @@
         <v>1.662988131304967</v>
       </c>
       <c r="D821" t="n">
-        <v>1.366711497306824</v>
+        <v>1.366711258888245</v>
       </c>
     </row>
     <row r="822">
@@ -11946,7 +11946,7 @@
         <v>1.809832407831946</v>
       </c>
       <c r="D822" t="n">
-        <v>1.506682395935059</v>
+        <v>1.506682515144348</v>
       </c>
     </row>
     <row r="823">
@@ -11960,7 +11960,7 @@
         <v>1.949035899216033</v>
       </c>
       <c r="D823" t="n">
-        <v>1.617783665657043</v>
+        <v>1.617783546447754</v>
       </c>
     </row>
     <row r="824">
@@ -11974,7 +11974,7 @@
         <v>2.07474506602915</v>
       </c>
       <c r="D824" t="n">
-        <v>1.697482943534851</v>
+        <v>1.697483420372009</v>
       </c>
     </row>
     <row r="825">
@@ -11988,7 +11988,7 @@
         <v>2.180886289805765</v>
       </c>
       <c r="D825" t="n">
-        <v>1.745534777641296</v>
+        <v>1.745534896850586</v>
       </c>
     </row>
     <row r="826">
@@ -12002,7 +12002,7 @@
         <v>2.261642797666784</v>
       </c>
       <c r="D826" t="n">
-        <v>1.763421177864075</v>
+        <v>1.763421416282654</v>
       </c>
     </row>
     <row r="827">
@@ -12016,7 +12016,7 @@
         <v>2.312149226576964</v>
       </c>
       <c r="D827" t="n">
-        <v>1.753915190696716</v>
+        <v>1.753914952278137</v>
       </c>
     </row>
     <row r="828">
@@ -12100,7 +12100,7 @@
         <v>2.046091832916917</v>
       </c>
       <c r="D833" t="n">
-        <v>1.371459722518921</v>
+        <v>1.3714599609375</v>
       </c>
     </row>
     <row r="834">
@@ -12142,7 +12142,7 @@
         <v>2.592094271881173</v>
       </c>
       <c r="D836" t="n">
-        <v>2.49416184425354</v>
+        <v>2.494161605834961</v>
       </c>
     </row>
     <row r="837">
@@ -12156,7 +12156,7 @@
         <v>2.252376817124468</v>
       </c>
       <c r="D837" t="n">
-        <v>2.268550634384155</v>
+        <v>2.268550395965576</v>
       </c>
     </row>
     <row r="838">
@@ -12170,7 +12170,7 @@
         <v>1.924487164214588</v>
       </c>
       <c r="D838" t="n">
-        <v>1.993929147720337</v>
+        <v>1.993928790092468</v>
       </c>
     </row>
     <row r="839">
@@ -12198,7 +12198,7 @@
         <v>1.394413501562878</v>
       </c>
       <c r="D840" t="n">
-        <v>1.35438060760498</v>
+        <v>1.354380369186401</v>
       </c>
     </row>
     <row r="841">
@@ -12212,7 +12212,7 @@
         <v>1.211343213268087</v>
       </c>
       <c r="D841" t="n">
-        <v>1.041142344474792</v>
+        <v>1.041141986846924</v>
       </c>
     </row>
     <row r="842">
@@ -12226,7 +12226,7 @@
         <v>1.084146456412724</v>
       </c>
       <c r="D842" t="n">
-        <v>0.7707479000091553</v>
+        <v>0.7707477807998657</v>
       </c>
     </row>
     <row r="843">
@@ -12268,7 +12268,7 @@
         <v>0.9902663934640596</v>
       </c>
       <c r="D845" t="n">
-        <v>0.3724459409713745</v>
+        <v>0.3724457025527954</v>
       </c>
     </row>
     <row r="846">
@@ -12282,7 +12282,7 @@
         <v>1.034595343921124</v>
       </c>
       <c r="D846" t="n">
-        <v>0.3819903135299683</v>
+        <v>0.3819900751113892</v>
       </c>
     </row>
     <row r="847">
@@ -12296,7 +12296,7 @@
         <v>1.107009914876969</v>
       </c>
       <c r="D847" t="n">
-        <v>0.4504832029342651</v>
+        <v>0.450482964515686</v>
       </c>
     </row>
     <row r="848">
@@ -12310,7 +12310,7 @@
         <v>1.202538527467664</v>
       </c>
       <c r="D848" t="n">
-        <v>0.5667880773544312</v>
+        <v>0.5667878389358521</v>
       </c>
     </row>
     <row r="849">
@@ -12338,7 +12338,7 @@
         <v>1.445699060196716</v>
       </c>
       <c r="D850" t="n">
-        <v>0.8926142454147339</v>
+        <v>0.8926140069961548</v>
       </c>
     </row>
     <row r="851">
@@ -12366,7 +12366,7 @@
         <v>1.73202028152124</v>
       </c>
       <c r="D852" t="n">
-        <v>1.253971576690674</v>
+        <v>1.253971815109253</v>
       </c>
     </row>
     <row r="853">
@@ -12380,7 +12380,7 @@
         <v>1.881135868875526</v>
       </c>
       <c r="D853" t="n">
-        <v>1.417373538017273</v>
+        <v>1.417373418807983</v>
       </c>
     </row>
     <row r="854">
@@ -12394,7 +12394,7 @@
         <v>2.027980145402505</v>
       </c>
       <c r="D854" t="n">
-        <v>1.5572350025177</v>
+        <v>1.557235240936279</v>
       </c>
     </row>
     <row r="855">
@@ -12436,7 +12436,7 @@
         <v>2.399034027376324</v>
       </c>
       <c r="D857" t="n">
-        <v>1.795861482620239</v>
+        <v>1.795861721038818</v>
       </c>
     </row>
     <row r="858">
@@ -12464,7 +12464,7 @@
         <v>2.530296964147523</v>
       </c>
       <c r="D859" t="n">
-        <v>1.804192423820496</v>
+        <v>1.804192304611206</v>
       </c>
     </row>
     <row r="860">
@@ -12492,7 +12492,7 @@
         <v>2.53120945648175</v>
       </c>
       <c r="D861" t="n">
-        <v>1.718746423721313</v>
+        <v>1.718746185302734</v>
       </c>
     </row>
     <row r="862">
@@ -12506,7 +12506,7 @@
         <v>2.484836948182673</v>
       </c>
       <c r="D862" t="n">
-        <v>1.65241539478302</v>
+        <v>1.65241527557373</v>
       </c>
     </row>
     <row r="863">
@@ -12548,7 +12548,7 @@
         <v>2.264239570487476</v>
       </c>
       <c r="D865" t="n">
-        <v>1.420616745948792</v>
+        <v>1.420616984367371</v>
       </c>
     </row>
     <row r="866">
@@ -12590,7 +12590,7 @@
         <v>2.709133707855635</v>
       </c>
       <c r="D868" t="n">
-        <v>2.547345638275146</v>
+        <v>2.547345876693726</v>
       </c>
     </row>
     <row r="869">
@@ -12604,7 +12604,7 @@
         <v>2.36941625309893</v>
       </c>
       <c r="D869" t="n">
-        <v>2.323187112808228</v>
+        <v>2.323187351226807</v>
       </c>
     </row>
     <row r="870">
@@ -12632,7 +12632,7 @@
         <v>1.750921522997698</v>
       </c>
       <c r="D871" t="n">
-        <v>1.73877477645874</v>
+        <v>1.738774538040161</v>
       </c>
     </row>
     <row r="872">
@@ -12660,7 +12660,7 @@
         <v>1.328382649242548</v>
       </c>
       <c r="D873" t="n">
-        <v>1.099294304847717</v>
+        <v>1.099294066429138</v>
       </c>
     </row>
     <row r="874">
@@ -12688,7 +12688,7 @@
         <v>1.125862481338284</v>
       </c>
       <c r="D875" t="n">
-        <v>0.6221489906311035</v>
+        <v>0.6221487522125244</v>
       </c>
     </row>
     <row r="876">
@@ -12702,7 +12702,7 @@
         <v>1.096669520293112</v>
       </c>
       <c r="D876" t="n">
-        <v>0.4889326095581055</v>
+        <v>0.488932728767395</v>
       </c>
     </row>
     <row r="877">
@@ -12716,7 +12716,7 @@
         <v>1.107305829438521</v>
       </c>
       <c r="D877" t="n">
-        <v>0.4298573732376099</v>
+        <v>0.4298574924468994</v>
       </c>
     </row>
     <row r="878">
@@ -12730,7 +12730,7 @@
         <v>1.151634779895585</v>
       </c>
       <c r="D878" t="n">
-        <v>0.4390990734100342</v>
+        <v>0.439098596572876</v>
       </c>
     </row>
     <row r="879">
@@ -12772,7 +12772,7 @@
         <v>1.433814452697663</v>
       </c>
       <c r="D881" t="n">
-        <v>0.775177001953125</v>
+        <v>0.7751772403717041</v>
       </c>
     </row>
     <row r="882">
@@ -12800,7 +12800,7 @@
         <v>1.702478528316396</v>
       </c>
       <c r="D883" t="n">
-        <v>1.131743907928467</v>
+        <v>1.131744265556335</v>
       </c>
     </row>
     <row r="884">
@@ -12814,7 +12814,7 @@
         <v>1.849059717495701</v>
       </c>
       <c r="D884" t="n">
-        <v>1.310192465782166</v>
+        <v>1.310192584991455</v>
       </c>
     </row>
     <row r="885">
@@ -12828,7 +12828,7 @@
         <v>1.998175304849988</v>
       </c>
       <c r="D885" t="n">
-        <v>1.47341787815094</v>
+        <v>1.47341775894165</v>
       </c>
     </row>
     <row r="886">
@@ -12842,7 +12842,7 @@
         <v>2.145019581376967</v>
       </c>
       <c r="D886" t="n">
-        <v>1.613093495368958</v>
+        <v>1.613093137741089</v>
       </c>
     </row>
     <row r="887">
@@ -12870,7 +12870,7 @@
         <v>2.40993223957417</v>
       </c>
       <c r="D888" t="n">
-        <v>1.803388118743896</v>
+        <v>1.803388237953186</v>
       </c>
     </row>
     <row r="889">
@@ -12884,7 +12884,7 @@
         <v>2.516073463350785</v>
       </c>
       <c r="D889" t="n">
-        <v>1.851265668869019</v>
+        <v>1.851265549659729</v>
       </c>
     </row>
     <row r="890">
@@ -12898,7 +12898,7 @@
         <v>2.596829971211804</v>
       </c>
       <c r="D890" t="n">
-        <v>1.869020819664001</v>
+        <v>1.869020700454712</v>
       </c>
     </row>
     <row r="891">
@@ -12926,7 +12926,7 @@
         <v>2.664555890654343</v>
       </c>
       <c r="D892" t="n">
-        <v>1.826115727424622</v>
+        <v>1.826115608215332</v>
       </c>
     </row>
     <row r="893">
@@ -12940,7 +12940,7 @@
         <v>2.648248892456211</v>
       </c>
       <c r="D893" t="n">
-        <v>1.773682594299316</v>
+        <v>1.773682355880737</v>
       </c>
     </row>
     <row r="894">
@@ -13010,7 +13010,7 @@
         <v>3.232348920937559</v>
       </c>
       <c r="D898" t="n">
-        <v>2.902145862579346</v>
+        <v>2.902146339416504</v>
       </c>
     </row>
     <row r="899">
@@ -13038,7 +13038,7 @@
         <v>2.69197271269942</v>
       </c>
       <c r="D900" t="n">
-        <v>2.602554559707642</v>
+        <v>2.602554798126221</v>
       </c>
     </row>
     <row r="901">
@@ -13052,7 +13052,7 @@
         <v>2.352255257942715</v>
       </c>
       <c r="D901" t="n">
-        <v>2.379867315292358</v>
+        <v>2.379867553710938</v>
       </c>
     </row>
     <row r="902">
@@ -13066,7 +13066,7 @@
         <v>2.024365605032834</v>
       </c>
       <c r="D902" t="n">
-        <v>2.107916831970215</v>
+        <v>2.107916593551636</v>
       </c>
     </row>
     <row r="903">
@@ -13136,7 +13136,7 @@
         <v>1.10870148618207</v>
       </c>
       <c r="D907" t="n">
-        <v>0.6825200319290161</v>
+        <v>0.682519793510437</v>
       </c>
     </row>
     <row r="908">
@@ -13150,7 +13150,7 @@
         <v>1.079508525136897</v>
       </c>
       <c r="D908" t="n">
-        <v>0.5489828586578369</v>
+        <v>0.5489826202392578</v>
       </c>
     </row>
     <row r="909">
@@ -13164,7 +13164,7 @@
         <v>1.090144834282307</v>
       </c>
       <c r="D909" t="n">
-        <v>0.489527702331543</v>
+        <v>0.4895279407501221</v>
       </c>
     </row>
     <row r="910">
@@ -13178,7 +13178,7 @@
         <v>1.134473784739371</v>
       </c>
       <c r="D910" t="n">
-        <v>0.4984133243560791</v>
+        <v>0.4984135627746582</v>
       </c>
     </row>
     <row r="911">
@@ -13234,7 +13234,7 @@
         <v>1.545577501014963</v>
       </c>
       <c r="D914" t="n">
-        <v>1.007538080215454</v>
+        <v>1.007538437843323</v>
       </c>
     </row>
     <row r="915">
@@ -13276,7 +13276,7 @@
         <v>1.981014309693773</v>
       </c>
       <c r="D917" t="n">
-        <v>1.531171202659607</v>
+        <v>1.531171083450317</v>
       </c>
     </row>
     <row r="918">
@@ -13304,7 +13304,7 @@
         <v>2.267062077604839</v>
       </c>
       <c r="D919" t="n">
-        <v>1.781166672706604</v>
+        <v>1.781167149543762</v>
       </c>
     </row>
     <row r="920">
@@ -13332,7 +13332,7 @@
         <v>2.49891246819457</v>
       </c>
       <c r="D921" t="n">
-        <v>1.908096075057983</v>
+        <v>1.908095955848694</v>
       </c>
     </row>
     <row r="922">
@@ -13346,7 +13346,7 @@
         <v>2.57966897605559</v>
       </c>
       <c r="D922" t="n">
-        <v>1.925678730010986</v>
+        <v>1.925678849220276</v>
       </c>
     </row>
     <row r="923">
@@ -13360,7 +13360,7 @@
         <v>2.63017540496577</v>
       </c>
       <c r="D923" t="n">
-        <v>1.915888905525208</v>
+        <v>1.915888667106628</v>
       </c>
     </row>
     <row r="924">
@@ -13374,7 +13374,7 @@
         <v>2.647394895498128</v>
       </c>
       <c r="D924" t="n">
-        <v>1.882429242134094</v>
+        <v>1.882429122924805</v>
       </c>
     </row>
     <row r="925">
@@ -13388,7 +13388,7 @@
         <v>2.631087897299996</v>
       </c>
       <c r="D925" t="n">
-        <v>1.829777717590332</v>
+        <v>1.829777836799622</v>
       </c>
     </row>
     <row r="926">
@@ -13402,7 +13402,7 @@
         <v>2.58471538900092</v>
       </c>
       <c r="D926" t="n">
-        <v>1.76295530796051</v>
+        <v>1.7629554271698</v>
       </c>
     </row>
     <row r="927">
@@ -13444,7 +13444,7 @@
         <v>2.364118011305723</v>
       </c>
       <c r="D929" t="n">
-        <v>1.528818249702454</v>
+        <v>1.528818488121033</v>
       </c>
     </row>
     <row r="930">
@@ -13500,7 +13500,7 @@
         <v>2.217592180867846</v>
       </c>
       <c r="D933" t="n">
-        <v>2.436458110809326</v>
+        <v>2.436458349227905</v>
       </c>
     </row>
     <row r="934">
@@ -13556,7 +13556,7 @@
         <v>1.176558577011464</v>
       </c>
       <c r="D937" t="n">
-        <v>1.220246434211731</v>
+        <v>1.22024667263031</v>
       </c>
     </row>
     <row r="938">
@@ -13584,7 +13584,7 @@
         <v>0.9740384091072007</v>
       </c>
       <c r="D939" t="n">
-        <v>0.7430702447891235</v>
+        <v>0.743070125579834</v>
       </c>
     </row>
     <row r="940">
@@ -13626,7 +13626,7 @@
         <v>0.9998107076645018</v>
       </c>
       <c r="D942" t="n">
-        <v>0.5577971935272217</v>
+        <v>0.557796835899353</v>
       </c>
     </row>
     <row r="943">
@@ -13668,7 +13668,7 @@
         <v>1.28199038046658</v>
       </c>
       <c r="D945" t="n">
-        <v>0.8922493457794189</v>
+        <v>0.8922491073608398</v>
       </c>
     </row>
     <row r="946">
@@ -13696,7 +13696,7 @@
         <v>1.550654456085312</v>
       </c>
       <c r="D947" t="n">
-        <v>1.24791693687439</v>
+        <v>1.247916698455811</v>
       </c>
     </row>
     <row r="948">
@@ -13710,7 +13710,7 @@
         <v>1.697235645264618</v>
       </c>
       <c r="D948" t="n">
-        <v>1.425840973854065</v>
+        <v>1.425841093063354</v>
       </c>
     </row>
     <row r="949">
@@ -13724,7 +13724,7 @@
         <v>1.846351232618904</v>
       </c>
       <c r="D949" t="n">
-        <v>1.588496088981628</v>
+        <v>1.588496208190918</v>
       </c>
     </row>
     <row r="950">
@@ -13738,7 +13738,7 @@
         <v>1.993195509145883</v>
       </c>
       <c r="D950" t="n">
-        <v>1.727587461471558</v>
+        <v>1.727587699890137</v>
       </c>
     </row>
     <row r="951">
@@ -13780,7 +13780,7 @@
         <v>2.364249391119702</v>
       </c>
       <c r="D953" t="n">
-        <v>1.964231133460999</v>
+        <v>1.964231252670288</v>
       </c>
     </row>
     <row r="954">
@@ -13808,7 +13808,7 @@
         <v>2.495512327890901</v>
       </c>
       <c r="D955" t="n">
-        <v>1.971563816070557</v>
+        <v>1.971563577651978</v>
       </c>
     </row>
     <row r="956">
@@ -13836,7 +13836,7 @@
         <v>2.496424820225128</v>
       </c>
       <c r="D957" t="n">
-        <v>1.884939670562744</v>
+        <v>1.884939551353455</v>
       </c>
     </row>
     <row r="958">
@@ -13850,7 +13850,7 @@
         <v>2.450052311926051</v>
       </c>
       <c r="D958" t="n">
-        <v>1.817785024642944</v>
+        <v>1.817784905433655</v>
       </c>
     </row>
     <row r="959">
@@ -13906,7 +13906,7 @@
         <v>2.909391266086776</v>
       </c>
       <c r="D962" t="n">
-        <v>3.005377769470215</v>
+        <v>3.005377531051636</v>
       </c>
     </row>
     <row r="963">
@@ -13920,7 +13920,7 @@
         <v>2.68083752165862</v>
       </c>
       <c r="D963" t="n">
-        <v>2.880781888961792</v>
+        <v>2.880781650543213</v>
       </c>
     </row>
     <row r="964">
@@ -13934,7 +13934,7 @@
         <v>2.369015057848637</v>
       </c>
       <c r="D964" t="n">
-        <v>2.711438179016113</v>
+        <v>2.711438417434692</v>
       </c>
     </row>
     <row r="965">
@@ -13962,7 +13962,7 @@
         <v>1.701407950182051</v>
       </c>
       <c r="D966" t="n">
-        <v>2.222622871398926</v>
+        <v>2.222623109817505</v>
       </c>
     </row>
     <row r="967">
@@ -14018,7 +14018,7 @@
         <v>0.8610672423801877</v>
       </c>
       <c r="D970" t="n">
-        <v>1.009831428527832</v>
+        <v>1.009831666946411</v>
       </c>
     </row>
     <row r="971">
@@ -14032,7 +14032,7 @@
         <v>0.7857438313312866</v>
       </c>
       <c r="D971" t="n">
-        <v>0.8025752305984497</v>
+        <v>0.8025753498077393</v>
       </c>
     </row>
     <row r="972">
@@ -14046,7 +14046,7 @@
         <v>0.7565508702861141</v>
       </c>
       <c r="D972" t="n">
-        <v>0.668346643447876</v>
+        <v>0.6683465242385864</v>
       </c>
     </row>
     <row r="973">
@@ -14088,7 +14088,7 @@
         <v>0.8839307008444326</v>
       </c>
       <c r="D975" t="n">
-        <v>0.6832071542739868</v>
+        <v>0.6832069158554077</v>
       </c>
     </row>
     <row r="976">
@@ -14102,7 +14102,7 @@
         <v>0.9794593134351275</v>
       </c>
       <c r="D976" t="n">
-        <v>0.7984553575515747</v>
+        <v>0.7984551191329956</v>
       </c>
     </row>
     <row r="977">
@@ -14116,7 +14116,7 @@
         <v>1.093695802690666</v>
       </c>
       <c r="D977" t="n">
-        <v>0.9493409395217896</v>
+        <v>0.9493405818939209</v>
       </c>
     </row>
     <row r="978">
@@ -14130,7 +14130,7 @@
         <v>1.22261984616418</v>
       </c>
       <c r="D978" t="n">
-        <v>1.122516512870789</v>
+        <v>1.122516751289368</v>
       </c>
     </row>
     <row r="979">
@@ -14144,7 +14144,7 @@
         <v>1.362359878309398</v>
       </c>
       <c r="D979" t="n">
-        <v>1.304338812828064</v>
+        <v>1.304338693618774</v>
       </c>
     </row>
     <row r="980">
@@ -14158,7 +14158,7 @@
         <v>1.508941067488704</v>
       </c>
       <c r="D980" t="n">
-        <v>1.481894612312317</v>
+        <v>1.481894493103027</v>
       </c>
     </row>
     <row r="981">
@@ -14172,7 +14172,7 @@
         <v>1.65805665484299</v>
       </c>
       <c r="D981" t="n">
-        <v>1.644160628318787</v>
+        <v>1.644160747528076</v>
       </c>
     </row>
     <row r="982">
@@ -14186,7 +14186,7 @@
         <v>1.804900931369969</v>
       </c>
       <c r="D982" t="n">
-        <v>1.782858848571777</v>
+        <v>1.782858967781067</v>
       </c>
     </row>
     <row r="983">
@@ -14214,7 +14214,7 @@
         <v>2.069813589567173</v>
       </c>
       <c r="D984" t="n">
-        <v>1.971349120140076</v>
+        <v>1.971349000930786</v>
       </c>
     </row>
     <row r="985">
@@ -14256,7 +14256,7 @@
         <v>2.307217750114987</v>
       </c>
       <c r="D987" t="n">
-        <v>2.025216817855835</v>
+        <v>2.025217056274414</v>
       </c>
     </row>
     <row r="988">
@@ -14298,7 +14298,7 @@
         <v>2.261757734150137</v>
       </c>
       <c r="D990" t="n">
-        <v>1.870444893836975</v>
+        <v>1.870444774627686</v>
       </c>
     </row>
     <row r="991">
@@ -14312,7 +14312,7 @@
         <v>2.193096647904091</v>
       </c>
       <c r="D991" t="n">
-        <v>1.793856501579285</v>
+        <v>1.793856620788574</v>
       </c>
     </row>
     <row r="992">
@@ -14354,7 +14354,7 @@
         <v>2.75379086138471</v>
       </c>
       <c r="D994" t="n">
-        <v>3.054351329803467</v>
+        <v>3.054351091384888</v>
       </c>
     </row>
     <row r="995">
@@ -14368,7 +14368,7 @@
         <v>2.525237116956554</v>
       </c>
       <c r="D995" t="n">
-        <v>2.931107044219971</v>
+        <v>2.931106805801392</v>
       </c>
     </row>
     <row r="996">
@@ -14396,7 +14396,7 @@
         <v>1.873697198389866</v>
       </c>
       <c r="D997" t="n">
-        <v>2.545080900192261</v>
+        <v>2.545080661773682</v>
       </c>
     </row>
     <row r="998">
@@ -14410,7 +14410,7 @@
         <v>1.545807545479985</v>
       </c>
       <c r="D998" t="n">
-        <v>2.277410745620728</v>
+        <v>2.277410507202148</v>
       </c>
     </row>
     <row r="999">
@@ -14480,7 +14480,7 @@
         <v>0.6301434266292203</v>
       </c>
       <c r="D1003" t="n">
-        <v>0.8603408336639404</v>
+        <v>0.8603404760360718</v>
       </c>
     </row>
     <row r="1004">
@@ -14494,7 +14494,7 @@
         <v>0.6009504655840479</v>
       </c>
       <c r="D1004" t="n">
-        <v>0.7257381677627563</v>
+        <v>0.7257378101348877</v>
       </c>
     </row>
     <row r="1005">
@@ -14508,7 +14508,7 @@
         <v>0.611586774729457</v>
       </c>
       <c r="D1005" t="n">
-        <v>0.6649036407470703</v>
+        <v>0.6649037599563599</v>
       </c>
     </row>
     <row r="1006">
@@ -14536,7 +14536,7 @@
         <v>0.7283302961423663</v>
       </c>
       <c r="D1007" t="n">
-        <v>0.7390730381011963</v>
+        <v>0.7390726804733276</v>
       </c>
     </row>
     <row r="1008">
@@ -14550,7 +14550,7 @@
         <v>0.8238589087330614</v>
       </c>
       <c r="D1008" t="n">
-        <v>0.8538762331008911</v>
+        <v>0.853875994682312</v>
       </c>
     </row>
     <row r="1009">
@@ -14564,7 +14564,7 @@
         <v>0.9380953979885993</v>
       </c>
       <c r="D1009" t="n">
-        <v>1.004353046417236</v>
+        <v>1.004352807998657</v>
       </c>
     </row>
     <row r="1010">
@@ -14578,7 +14578,7 @@
         <v>1.067019441462113</v>
       </c>
       <c r="D1010" t="n">
-        <v>1.177128076553345</v>
+        <v>1.177128195762634</v>
       </c>
     </row>
     <row r="1011">
@@ -14606,7 +14606,7 @@
         <v>1.353340662786637</v>
       </c>
       <c r="D1012" t="n">
-        <v>1.535653710365295</v>
+        <v>1.535653591156006</v>
       </c>
     </row>
     <row r="1013">
@@ -14620,7 +14620,7 @@
         <v>1.502456250140924</v>
       </c>
       <c r="D1013" t="n">
-        <v>1.697465062141418</v>
+        <v>1.697465181350708</v>
       </c>
     </row>
     <row r="1014">
@@ -14648,7 +14648,7 @@
         <v>1.78850401805199</v>
       </c>
       <c r="D1015" t="n">
-        <v>1.945153117179871</v>
+        <v>1.945152878761292</v>
       </c>
     </row>
     <row r="1016">
@@ -14662,7 +14662,7 @@
         <v>1.914213184865106</v>
       </c>
       <c r="D1016" t="n">
-        <v>2.023352384567261</v>
+        <v>2.02335262298584</v>
       </c>
     </row>
     <row r="1017">
@@ -14676,7 +14676,7 @@
         <v>2.020354408641721</v>
       </c>
       <c r="D1017" t="n">
-        <v>2.070086717605591</v>
+        <v>2.070086479187012</v>
       </c>
     </row>
     <row r="1018">
@@ -14704,7 +14704,7 @@
         <v>2.15161734541292</v>
       </c>
       <c r="D1019" t="n">
-        <v>2.076180219650269</v>
+        <v>2.076179981231689</v>
       </c>
     </row>
     <row r="1020">
@@ -14760,7 +14760,7 @@
         <v>2.037496243202025</v>
       </c>
       <c r="D1023" t="n">
-        <v>1.843215346336365</v>
+        <v>1.843215465545654</v>
       </c>
     </row>
     <row r="1024">
@@ -14788,7 +14788,7 @@
         <v>1.885559951752874</v>
       </c>
       <c r="D1025" t="n">
-        <v>1.681542754173279</v>
+        <v>1.6815425157547</v>
       </c>
     </row>
   </sheetData>
